--- a/data/pca/factorExposure/factorExposure_2011-05-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-05-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.01711585355330218</v>
+        <v>0.01459066125306005</v>
       </c>
       <c r="C2">
-        <v>-0.003725421556059479</v>
+        <v>6.007485501518361e-05</v>
       </c>
       <c r="D2">
-        <v>0.05454869513164495</v>
+        <v>0.007591785874583179</v>
       </c>
       <c r="E2">
-        <v>0.02230884332478115</v>
+        <v>0.04262440234174241</v>
       </c>
       <c r="F2">
-        <v>0.03378130499304472</v>
+        <v>-0.003423253930470029</v>
       </c>
       <c r="G2">
-        <v>-0.01837017586574854</v>
+        <v>0.01039876133274288</v>
       </c>
       <c r="H2">
-        <v>-0.0272585556089675</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.03808986456347838</v>
+      </c>
+      <c r="I2">
+        <v>0.01753855476793895</v>
+      </c>
+      <c r="J2">
+        <v>-0.008194133158416715</v>
+      </c>
+      <c r="K2">
+        <v>0.05234477538115902</v>
+      </c>
+      <c r="L2">
+        <v>-0.02107259066040672</v>
+      </c>
+      <c r="M2">
+        <v>0.008213527219199374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.08080982930176046</v>
+        <v>0.109510301707726</v>
       </c>
       <c r="C4">
-        <v>0.05696718963644905</v>
+        <v>-0.07660720888711114</v>
       </c>
       <c r="D4">
-        <v>0.03066381021448402</v>
+        <v>0.01697439992037046</v>
       </c>
       <c r="E4">
-        <v>0.04324142201331228</v>
+        <v>0.04877783388463547</v>
       </c>
       <c r="F4">
-        <v>0.01855459201110964</v>
+        <v>0.1478665799326956</v>
       </c>
       <c r="G4">
-        <v>-0.0143388607032309</v>
+        <v>-0.03782735579560454</v>
       </c>
       <c r="H4">
-        <v>-0.004875170068890114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.03735698836535439</v>
+      </c>
+      <c r="I4">
+        <v>-0.03831547898642838</v>
+      </c>
+      <c r="J4">
+        <v>-0.02091997102879103</v>
+      </c>
+      <c r="K4">
+        <v>-0.0974320214947159</v>
+      </c>
+      <c r="L4">
+        <v>-0.03213683220683375</v>
+      </c>
+      <c r="M4">
+        <v>-0.06855431452987422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>-0.1291383267146763</v>
+        <v>0.1334298955466166</v>
       </c>
       <c r="C6">
-        <v>0.03856122224501718</v>
+        <v>-0.05100068400869058</v>
       </c>
       <c r="D6">
-        <v>0.03806073420533352</v>
+        <v>-0.0008872374869918186</v>
       </c>
       <c r="E6">
-        <v>0.05650577066844913</v>
+        <v>-0.003028943685283714</v>
       </c>
       <c r="F6">
-        <v>-0.1087722303137654</v>
+        <v>-0.01085654409872601</v>
       </c>
       <c r="G6">
-        <v>0.05809332904337118</v>
+        <v>-0.1129591200522034</v>
       </c>
       <c r="H6">
-        <v>0.2542789727036355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.003435006565289031</v>
+      </c>
+      <c r="I6">
+        <v>-0.3438557795625192</v>
+      </c>
+      <c r="J6">
+        <v>0.292128751248757</v>
+      </c>
+      <c r="K6">
+        <v>-0.1090953688860938</v>
+      </c>
+      <c r="L6">
+        <v>-0.09272868471630634</v>
+      </c>
+      <c r="M6">
+        <v>0.02851231864560022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>-0.07216918033860414</v>
+        <v>0.07016164231323578</v>
       </c>
       <c r="C7">
-        <v>0.05131769112175139</v>
+        <v>-0.06432497781862011</v>
       </c>
       <c r="D7">
-        <v>0.04300188447116536</v>
+        <v>0.01307382952087365</v>
       </c>
       <c r="E7">
-        <v>0.04755496083997639</v>
+        <v>0.05717656383665247</v>
       </c>
       <c r="F7">
-        <v>-0.04666870469019336</v>
+        <v>0.02204529152064585</v>
       </c>
       <c r="G7">
-        <v>-0.002285411628938994</v>
+        <v>-0.01364195561237501</v>
       </c>
       <c r="H7">
-        <v>-0.01838729931801655</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.02074147555303545</v>
+      </c>
+      <c r="I7">
+        <v>0.03143354158694469</v>
+      </c>
+      <c r="J7">
+        <v>-0.08413347360751589</v>
+      </c>
+      <c r="K7">
+        <v>-0.06244772557380313</v>
+      </c>
+      <c r="L7">
+        <v>-0.02283021082162162</v>
+      </c>
+      <c r="M7">
+        <v>0.04999179088090326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>-0.03310739931060282</v>
+        <v>0.04216601391961909</v>
       </c>
       <c r="C8">
-        <v>0.02153577326171461</v>
+        <v>-0.01829590853061321</v>
       </c>
       <c r="D8">
-        <v>0.05827045608655015</v>
+        <v>0.007045798772336506</v>
       </c>
       <c r="E8">
-        <v>0.04906841920689892</v>
+        <v>0.03767873650212341</v>
       </c>
       <c r="F8">
-        <v>0.01447759586696042</v>
+        <v>0.1236712915714435</v>
       </c>
       <c r="G8">
-        <v>-0.04941316914960003</v>
+        <v>-0.01541720419087765</v>
       </c>
       <c r="H8">
-        <v>0.008530343290659373</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.02793379016525858</v>
+      </c>
+      <c r="I8">
+        <v>-0.060159392866681</v>
+      </c>
+      <c r="J8">
+        <v>-0.04027076147790073</v>
+      </c>
+      <c r="K8">
+        <v>-0.06764735987810511</v>
+      </c>
+      <c r="L8">
+        <v>-0.07060095691492671</v>
+      </c>
+      <c r="M8">
+        <v>-0.07796060121427235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-0.07868741349294235</v>
+        <v>0.08404994267852879</v>
       </c>
       <c r="C9">
-        <v>0.06283291791875194</v>
+        <v>-0.06844332669028776</v>
       </c>
       <c r="D9">
-        <v>0.03268808429064038</v>
+        <v>-0.001504190520626484</v>
       </c>
       <c r="E9">
-        <v>0.04203259874420642</v>
+        <v>0.03279413388254716</v>
       </c>
       <c r="F9">
-        <v>0.02598339502035147</v>
+        <v>0.1348156941117463</v>
       </c>
       <c r="G9">
-        <v>-0.01500762341986666</v>
+        <v>-0.03896553600295499</v>
       </c>
       <c r="H9">
-        <v>0.001411794797068405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.009336920817414702</v>
+      </c>
+      <c r="I9">
+        <v>-0.01324681735048108</v>
+      </c>
+      <c r="J9">
+        <v>-0.02695963942282176</v>
+      </c>
+      <c r="K9">
+        <v>-0.05513465400307992</v>
+      </c>
+      <c r="L9">
+        <v>-0.03401490192892628</v>
+      </c>
+      <c r="M9">
+        <v>0.004039427412068149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>-0.05770937160753487</v>
+        <v>0.1114177400943918</v>
       </c>
       <c r="C10">
-        <v>-0.1404344343421414</v>
+        <v>0.1641136287541352</v>
       </c>
       <c r="D10">
-        <v>0.08035099201811444</v>
+        <v>0.01130080188061551</v>
       </c>
       <c r="E10">
-        <v>0.04553700053294759</v>
+        <v>0.04360846813362716</v>
       </c>
       <c r="F10">
-        <v>-0.03793719689574815</v>
+        <v>-0.02067963079110592</v>
       </c>
       <c r="G10">
-        <v>0.0005191275628249547</v>
+        <v>-0.0282233569452182</v>
       </c>
       <c r="H10">
-        <v>0.02387243574891952</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.01725878316537523</v>
+      </c>
+      <c r="I10">
+        <v>0.0274160450721263</v>
+      </c>
+      <c r="J10">
+        <v>0.01328191506056347</v>
+      </c>
+      <c r="K10">
+        <v>0.02087008789656145</v>
+      </c>
+      <c r="L10">
+        <v>0.03526714027659893</v>
+      </c>
+      <c r="M10">
+        <v>0.117333686120197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>-0.07295584126135458</v>
+        <v>0.06827301642509447</v>
       </c>
       <c r="C11">
-        <v>0.08112703977036682</v>
+        <v>-0.07410677165867642</v>
       </c>
       <c r="D11">
-        <v>0.01708559511709186</v>
+        <v>-0.02801079062274563</v>
       </c>
       <c r="E11">
-        <v>0.001412109741677302</v>
+        <v>0.01327280139150188</v>
       </c>
       <c r="F11">
-        <v>0.04396746530989948</v>
+        <v>0.1127354410262119</v>
       </c>
       <c r="G11">
-        <v>-0.08023359530267431</v>
+        <v>-0.01942366706891472</v>
       </c>
       <c r="H11">
-        <v>-0.03943378248644623</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.04642216605769765</v>
+      </c>
+      <c r="I11">
+        <v>0.05545320800330151</v>
+      </c>
+      <c r="J11">
+        <v>-0.05488593435332361</v>
+      </c>
+      <c r="K11">
+        <v>0.06104637761341071</v>
+      </c>
+      <c r="L11">
+        <v>-0.03425070700565225</v>
+      </c>
+      <c r="M11">
+        <v>0.1243727579292308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>-0.0700495642985753</v>
+        <v>0.06870823275809945</v>
       </c>
       <c r="C12">
-        <v>0.05175142835631871</v>
+        <v>-0.06558476073854291</v>
       </c>
       <c r="D12">
-        <v>0.00779515723819786</v>
+        <v>-0.02792705518001169</v>
       </c>
       <c r="E12">
-        <v>0.03051941834345296</v>
+        <v>0.004393437811016177</v>
       </c>
       <c r="F12">
-        <v>-0.003215023604239442</v>
+        <v>0.1179822811069361</v>
       </c>
       <c r="G12">
-        <v>-0.05894728704785168</v>
+        <v>-0.01681485897199894</v>
       </c>
       <c r="H12">
-        <v>-0.0415164131232074</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.04418108889249598</v>
+      </c>
+      <c r="I12">
+        <v>0.01898106333938576</v>
+      </c>
+      <c r="J12">
+        <v>-0.07637882349118671</v>
+      </c>
+      <c r="K12">
+        <v>0.04456627599232071</v>
+      </c>
+      <c r="L12">
+        <v>-0.04727688642073789</v>
+      </c>
+      <c r="M12">
+        <v>0.1439920103421863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>-0.06075313374696662</v>
+        <v>0.0456878074321042</v>
       </c>
       <c r="C13">
-        <v>0.007369827901239385</v>
+        <v>-0.0335261695561326</v>
       </c>
       <c r="D13">
-        <v>-0.006076121102363963</v>
+        <v>0.02239231217571097</v>
       </c>
       <c r="E13">
-        <v>0.02771084808190036</v>
+        <v>0.009124787338297941</v>
       </c>
       <c r="F13">
-        <v>0.05282568688789122</v>
+        <v>0.04817934300197304</v>
       </c>
       <c r="G13">
-        <v>5.469449718215564e-05</v>
+        <v>-0.0008786847491383367</v>
       </c>
       <c r="H13">
-        <v>0.01250031406988459</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.01872902029242246</v>
+      </c>
+      <c r="I13">
+        <v>-0.009716617814372771</v>
+      </c>
+      <c r="J13">
+        <v>-0.0217164692514771</v>
+      </c>
+      <c r="K13">
+        <v>-0.0353678293232428</v>
+      </c>
+      <c r="L13">
+        <v>0.01237701476554622</v>
+      </c>
+      <c r="M13">
+        <v>-0.03475555958695245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>-0.04815970841058828</v>
+        <v>0.03956122202889797</v>
       </c>
       <c r="C14">
-        <v>0.01847198934131179</v>
+        <v>-0.02817189939013826</v>
       </c>
       <c r="D14">
-        <v>0.02306351541415138</v>
+        <v>-0.01368746772941856</v>
       </c>
       <c r="E14">
-        <v>0.02303783126350967</v>
+        <v>0.0176936315916433</v>
       </c>
       <c r="F14">
-        <v>-0.01821193520389186</v>
+        <v>0.06508080774738056</v>
       </c>
       <c r="G14">
-        <v>0.00804035447862639</v>
+        <v>-0.001241421018723571</v>
       </c>
       <c r="H14">
-        <v>0.07962344605035758</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.03406121311416812</v>
+      </c>
+      <c r="I14">
+        <v>0.00116738144877082</v>
+      </c>
+      <c r="J14">
+        <v>0.0004036070606783198</v>
+      </c>
+      <c r="K14">
+        <v>-0.1042063178163251</v>
+      </c>
+      <c r="L14">
+        <v>-0.01844833987318662</v>
+      </c>
+      <c r="M14">
+        <v>-0.003491056743010257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>-0.03627223915544123</v>
+        <v>0.02520650623595007</v>
       </c>
       <c r="C15">
-        <v>-0.007814619324049142</v>
+        <v>-0.009338873720000366</v>
       </c>
       <c r="D15">
-        <v>-0.005490384181403094</v>
+        <v>0.05523265761124303</v>
       </c>
       <c r="E15">
-        <v>0.02109109223569912</v>
+        <v>0.003586263785979021</v>
       </c>
       <c r="F15">
-        <v>0.006658443611668153</v>
+        <v>5.870801170967356e-05</v>
       </c>
       <c r="G15">
-        <v>0.0144765111105445</v>
+        <v>-0.03980155500180629</v>
       </c>
       <c r="H15">
-        <v>0.01677072918261244</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.01826062623981627</v>
+      </c>
+      <c r="I15">
+        <v>0.0001397109311646788</v>
+      </c>
+      <c r="J15">
+        <v>0.005277844491336893</v>
+      </c>
+      <c r="K15">
+        <v>-0.0823041070327853</v>
+      </c>
+      <c r="L15">
+        <v>0.00605317511258359</v>
+      </c>
+      <c r="M15">
+        <v>0.01317398501520303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>-0.0640878133104426</v>
+        <v>0.07180381979574831</v>
       </c>
       <c r="C16">
-        <v>0.07808044641335614</v>
+        <v>-0.0800042438609023</v>
       </c>
       <c r="D16">
-        <v>0.01640750567610092</v>
+        <v>-0.01803653633275451</v>
       </c>
       <c r="E16">
-        <v>0.03330238379613629</v>
+        <v>0.01152808832892936</v>
       </c>
       <c r="F16">
-        <v>0.04104396613967203</v>
+        <v>0.1150643062081364</v>
       </c>
       <c r="G16">
-        <v>-0.05491631540128588</v>
+        <v>-0.009535192522165699</v>
       </c>
       <c r="H16">
-        <v>-0.02909070721225759</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.0319751998597981</v>
+      </c>
+      <c r="I16">
+        <v>0.0346337239732502</v>
+      </c>
+      <c r="J16">
+        <v>-0.0710255568427765</v>
+      </c>
+      <c r="K16">
+        <v>0.04308634709074678</v>
+      </c>
+      <c r="L16">
+        <v>-0.05522128373094654</v>
+      </c>
+      <c r="M16">
+        <v>0.1262486091962422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>-0.04493738181840203</v>
+        <v>0.04700524705343435</v>
       </c>
       <c r="C20">
-        <v>0.04285447669570202</v>
+        <v>-0.03266272329765566</v>
       </c>
       <c r="D20">
-        <v>0.008592223991231714</v>
+        <v>0.02486536627844205</v>
       </c>
       <c r="E20">
-        <v>0.01951168770129202</v>
+        <v>0.02326603221132241</v>
       </c>
       <c r="F20">
-        <v>0.02205179743098176</v>
+        <v>0.06708904188817996</v>
       </c>
       <c r="G20">
-        <v>-0.01982415316442838</v>
+        <v>0.01450883762347309</v>
       </c>
       <c r="H20">
-        <v>0.0009561245585091525</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.01674762697972551</v>
+      </c>
+      <c r="I20">
+        <v>-0.01318007662635045</v>
+      </c>
+      <c r="J20">
+        <v>-0.02748026904674855</v>
+      </c>
+      <c r="K20">
+        <v>-0.06486692721814084</v>
+      </c>
+      <c r="L20">
+        <v>-0.04095231398188935</v>
+      </c>
+      <c r="M20">
+        <v>0.0283235257997722</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>-0.02108219550585901</v>
+        <v>0.02356671673447872</v>
       </c>
       <c r="C21">
-        <v>0.03096312335031372</v>
+        <v>-0.02366940099168729</v>
       </c>
       <c r="D21">
-        <v>-0.002948129931656699</v>
+        <v>0.007840459551042834</v>
       </c>
       <c r="E21">
-        <v>0.05820512680527125</v>
+        <v>0.03132663355143971</v>
       </c>
       <c r="F21">
-        <v>-0.06898808549481934</v>
+        <v>0.05408392622367306</v>
       </c>
       <c r="G21">
-        <v>0.004447907035185108</v>
+        <v>-0.0801380660150893</v>
       </c>
       <c r="H21">
-        <v>0.02037262473436046</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.1019578362454449</v>
+      </c>
+      <c r="I21">
+        <v>0.006897136214907491</v>
+      </c>
+      <c r="J21">
+        <v>-0.01990299478370952</v>
+      </c>
+      <c r="K21">
+        <v>-0.09066180870034243</v>
+      </c>
+      <c r="L21">
+        <v>0.02578210952606037</v>
+      </c>
+      <c r="M21">
+        <v>0.03203354482774154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>-0.01091597498675728</v>
+        <v>0.04309635180016847</v>
       </c>
       <c r="C22">
-        <v>0.03357921596334432</v>
+        <v>-0.02541521379187806</v>
       </c>
       <c r="D22">
-        <v>-0.08285917551610585</v>
+        <v>0.6540343405220037</v>
       </c>
       <c r="E22">
-        <v>0.5229622492323214</v>
+        <v>0.05102765431771739</v>
       </c>
       <c r="F22">
-        <v>0.1289818111052552</v>
+        <v>-0.04921117733705479</v>
       </c>
       <c r="G22">
-        <v>0.2222566785172747</v>
+        <v>0.1417778253370058</v>
       </c>
       <c r="H22">
-        <v>-0.2238979043014896</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.1094891553033036</v>
+      </c>
+      <c r="I22">
+        <v>0.00269515357548585</v>
+      </c>
+      <c r="J22">
+        <v>0.01414903575651071</v>
+      </c>
+      <c r="K22">
+        <v>0.02870143611015482</v>
+      </c>
+      <c r="L22">
+        <v>0.006789697501864891</v>
+      </c>
+      <c r="M22">
+        <v>-0.007170786380025966</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>-0.00971996751144151</v>
+        <v>0.04332055517520038</v>
       </c>
       <c r="C23">
-        <v>0.03242714820159667</v>
+        <v>-0.02561453463284155</v>
       </c>
       <c r="D23">
-        <v>-0.08226008674887529</v>
+        <v>0.6555247932209296</v>
       </c>
       <c r="E23">
-        <v>0.5217352633212478</v>
+        <v>0.0514890499378701</v>
       </c>
       <c r="F23">
-        <v>0.1279846750134166</v>
+        <v>-0.04636985036356586</v>
       </c>
       <c r="G23">
-        <v>0.2232143520199474</v>
+        <v>0.1420066410563121</v>
       </c>
       <c r="H23">
-        <v>-0.2213044144935634</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.1074580349777298</v>
+      </c>
+      <c r="I23">
+        <v>0.0001041493540913036</v>
+      </c>
+      <c r="J23">
+        <v>0.01664327392708322</v>
+      </c>
+      <c r="K23">
+        <v>0.03026031602287881</v>
+      </c>
+      <c r="L23">
+        <v>0.004966364307859621</v>
+      </c>
+      <c r="M23">
+        <v>-0.006537054180615468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>-0.07758493493427177</v>
+        <v>0.07571982168962302</v>
       </c>
       <c r="C24">
-        <v>0.06805026591561823</v>
+        <v>-0.07626307828329383</v>
       </c>
       <c r="D24">
-        <v>0.0184470970816646</v>
+        <v>-0.01293440426140523</v>
       </c>
       <c r="E24">
-        <v>0.03617409433969152</v>
+        <v>0.0161322142950499</v>
       </c>
       <c r="F24">
-        <v>0.02372309915096892</v>
+        <v>0.1132846241365688</v>
       </c>
       <c r="G24">
-        <v>-0.05924182548169227</v>
+        <v>-0.01802919552870905</v>
       </c>
       <c r="H24">
-        <v>-0.02066554439400458</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.03809321442783268</v>
+      </c>
+      <c r="I24">
+        <v>0.03556785131349442</v>
+      </c>
+      <c r="J24">
+        <v>-0.04857136839146601</v>
+      </c>
+      <c r="K24">
+        <v>0.05694333343581152</v>
+      </c>
+      <c r="L24">
+        <v>-0.04511306844544013</v>
+      </c>
+      <c r="M24">
+        <v>0.1072491394706895</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>-0.06918150347982409</v>
+        <v>0.07294120775554591</v>
       </c>
       <c r="C25">
-        <v>0.03876899457998571</v>
+        <v>-0.05281521260183838</v>
       </c>
       <c r="D25">
-        <v>0.02123907755101524</v>
+        <v>-0.03143978869759856</v>
       </c>
       <c r="E25">
-        <v>0.04277639726384779</v>
+        <v>0.01266874958659596</v>
       </c>
       <c r="F25">
-        <v>0.03731495654397036</v>
+        <v>0.1222761588829075</v>
       </c>
       <c r="G25">
-        <v>-0.06601373846760161</v>
+        <v>-0.007193322530676332</v>
       </c>
       <c r="H25">
-        <v>0.00933824956471503</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.02710557833764906</v>
+      </c>
+      <c r="I25">
+        <v>0.03866338559226337</v>
+      </c>
+      <c r="J25">
+        <v>-0.04130887957510398</v>
+      </c>
+      <c r="K25">
+        <v>0.06637410942290019</v>
+      </c>
+      <c r="L25">
+        <v>-0.06506535416209716</v>
+      </c>
+      <c r="M25">
+        <v>0.113949567482078</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>-0.04536916628562439</v>
+        <v>0.0437523109572729</v>
       </c>
       <c r="C26">
-        <v>0.03932993866068572</v>
+        <v>-0.01782759172445174</v>
       </c>
       <c r="D26">
-        <v>0.03874885478126081</v>
+        <v>0.01224295802016517</v>
       </c>
       <c r="E26">
-        <v>0.005781655619808142</v>
+        <v>0.004952677977674179</v>
       </c>
       <c r="F26">
-        <v>0.01075131797195991</v>
+        <v>0.04379668999676974</v>
       </c>
       <c r="G26">
-        <v>0.02256041830954485</v>
+        <v>0.008507021112291353</v>
       </c>
       <c r="H26">
-        <v>0.003755831280733633</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.01467289907283426</v>
+      </c>
+      <c r="I26">
+        <v>0.01224324216318119</v>
+      </c>
+      <c r="J26">
+        <v>-0.0233010948614388</v>
+      </c>
+      <c r="K26">
+        <v>-0.1271712925579023</v>
+      </c>
+      <c r="L26">
+        <v>0.03425000895208052</v>
+      </c>
+      <c r="M26">
+        <v>0.05426658889894399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>-0.1008949259114877</v>
+        <v>0.1458241529173215</v>
       </c>
       <c r="C28">
-        <v>-0.2911195241665739</v>
+        <v>0.2841313629891311</v>
       </c>
       <c r="D28">
-        <v>0.06876472832754994</v>
+        <v>-0.008622171394860904</v>
       </c>
       <c r="E28">
-        <v>0.0002079845351814509</v>
+        <v>0.02313608618001255</v>
       </c>
       <c r="F28">
-        <v>-0.05266547807273246</v>
+        <v>0.002633243403563189</v>
       </c>
       <c r="G28">
-        <v>-0.006461142097057694</v>
+        <v>-0.005962040927604935</v>
       </c>
       <c r="H28">
-        <v>-0.05655936359042167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.01793710824327515</v>
+      </c>
+      <c r="I28">
+        <v>-0.0225384359621131</v>
+      </c>
+      <c r="J28">
+        <v>-0.02460621593000799</v>
+      </c>
+      <c r="K28">
+        <v>-0.01189478188645739</v>
+      </c>
+      <c r="L28">
+        <v>0.01695623961238334</v>
+      </c>
+      <c r="M28">
+        <v>-0.01090505088621601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>-0.04985793715146893</v>
+        <v>0.04077761160621127</v>
       </c>
       <c r="C29">
-        <v>0.01508739043094755</v>
+        <v>-0.0280975679935165</v>
       </c>
       <c r="D29">
-        <v>0.01044420949116723</v>
+        <v>-0.004577151953717918</v>
       </c>
       <c r="E29">
-        <v>0.02947375587727747</v>
+        <v>0.02478359018530732</v>
       </c>
       <c r="F29">
-        <v>0.006740162711508954</v>
+        <v>0.06221359461891703</v>
       </c>
       <c r="G29">
-        <v>0.01614483949920926</v>
+        <v>0.01094345096102635</v>
       </c>
       <c r="H29">
-        <v>0.01685110921249541</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.0115381312677967</v>
+      </c>
+      <c r="I29">
+        <v>-0.008110596419256027</v>
+      </c>
+      <c r="J29">
+        <v>-0.005329005324286106</v>
+      </c>
+      <c r="K29">
+        <v>-0.08996982290491318</v>
+      </c>
+      <c r="L29">
+        <v>-0.01730411341891314</v>
+      </c>
+      <c r="M29">
+        <v>0.009970879679810828</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>-0.1284771217995941</v>
+        <v>0.1049033121454838</v>
       </c>
       <c r="C30">
-        <v>0.05323820863905754</v>
+        <v>-0.0575254479293312</v>
       </c>
       <c r="D30">
-        <v>0.04820569032772149</v>
+        <v>-0.006276303087316536</v>
       </c>
       <c r="E30">
-        <v>0.1215922738761668</v>
+        <v>0.04855770708103416</v>
       </c>
       <c r="F30">
-        <v>-0.01747592071857708</v>
+        <v>0.2319528689870324</v>
       </c>
       <c r="G30">
-        <v>-0.1712690554946</v>
+        <v>0.1115683593794038</v>
       </c>
       <c r="H30">
-        <v>0.003702139404507416</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.2377063136817542</v>
+      </c>
+      <c r="I30">
+        <v>-0.1355394762981114</v>
+      </c>
+      <c r="J30">
+        <v>-0.08222760950355197</v>
+      </c>
+      <c r="K30">
+        <v>-0.1521581870060873</v>
+      </c>
+      <c r="L30">
+        <v>-0.03826347307028875</v>
+      </c>
+      <c r="M30">
+        <v>-0.4554878555328063</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>-0.04968283936639139</v>
+        <v>0.03844411680776388</v>
       </c>
       <c r="C31">
-        <v>0.02109773143239128</v>
+        <v>-0.05122453617750398</v>
       </c>
       <c r="D31">
-        <v>-0.01054701862815506</v>
+        <v>0.004484260694230342</v>
       </c>
       <c r="E31">
-        <v>0.002749549702171777</v>
+        <v>-0.009026671963256164</v>
       </c>
       <c r="F31">
-        <v>0.01168052025015742</v>
+        <v>0.02813495382957628</v>
       </c>
       <c r="G31">
-        <v>0.03772472020270208</v>
+        <v>0.01216165625957825</v>
       </c>
       <c r="H31">
-        <v>0.00459410375734368</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.04471729699361566</v>
+      </c>
+      <c r="I31">
+        <v>0.000478829360841569</v>
+      </c>
+      <c r="J31">
+        <v>-0.001334475008174579</v>
+      </c>
+      <c r="K31">
+        <v>-0.02890930803148236</v>
+      </c>
+      <c r="L31">
+        <v>-0.02910026793252528</v>
+      </c>
+      <c r="M31">
+        <v>0.003183992842852382</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>-0.0142442852724313</v>
+        <v>0.0437654605572052</v>
       </c>
       <c r="C32">
-        <v>-0.02241076886166896</v>
+        <v>0.004094277754860448</v>
       </c>
       <c r="D32">
-        <v>-0.006055209895204321</v>
+        <v>-0.01458617610241647</v>
       </c>
       <c r="E32">
-        <v>0.08039849406073724</v>
+        <v>-0.001666286308774813</v>
       </c>
       <c r="F32">
-        <v>0.08250460507556114</v>
+        <v>0.0828493741966851</v>
       </c>
       <c r="G32">
-        <v>-0.02941365655819989</v>
+        <v>-0.03202012258334783</v>
       </c>
       <c r="H32">
-        <v>-0.04318758845754113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.03621948803371072</v>
+      </c>
+      <c r="I32">
+        <v>0.06169579620638409</v>
+      </c>
+      <c r="J32">
+        <v>-0.04370393964947675</v>
+      </c>
+      <c r="K32">
+        <v>-0.04115219827178591</v>
+      </c>
+      <c r="L32">
+        <v>-0.01327016554715514</v>
+      </c>
+      <c r="M32">
+        <v>-0.1467214771183185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>-0.1038780821836513</v>
+        <v>0.09888141378785649</v>
       </c>
       <c r="C33">
-        <v>0.03731952787584498</v>
+        <v>-0.06768964440061408</v>
       </c>
       <c r="D33">
-        <v>0.000190871308768679</v>
+        <v>-0.01380539116358258</v>
       </c>
       <c r="E33">
-        <v>0.02218622268632334</v>
+        <v>-0.01384939991475541</v>
       </c>
       <c r="F33">
-        <v>0.05570740849586869</v>
+        <v>0.08386669015410891</v>
       </c>
       <c r="G33">
-        <v>-0.01787829017713214</v>
+        <v>0.01912049879697181</v>
       </c>
       <c r="H33">
-        <v>0.01077696152416677</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.002941993640449094</v>
+      </c>
+      <c r="I33">
+        <v>0.01362199030881523</v>
+      </c>
+      <c r="J33">
+        <v>0.02170610276181311</v>
+      </c>
+      <c r="K33">
+        <v>-0.04476218060497308</v>
+      </c>
+      <c r="L33">
+        <v>-0.004722334375534138</v>
+      </c>
+      <c r="M33">
+        <v>-0.006220001818913794</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>-0.05585729337688944</v>
+        <v>0.063641476170657</v>
       </c>
       <c r="C34">
-        <v>0.07084376886112521</v>
+        <v>-0.06579261752848972</v>
       </c>
       <c r="D34">
-        <v>0.006286765556593841</v>
+        <v>-0.02155133030259659</v>
       </c>
       <c r="E34">
-        <v>0.02094508187851034</v>
+        <v>0.009523567426944652</v>
       </c>
       <c r="F34">
-        <v>0.02662268851728</v>
+        <v>0.1056860240080246</v>
       </c>
       <c r="G34">
-        <v>-0.04179718744821317</v>
+        <v>-0.01605732186447844</v>
       </c>
       <c r="H34">
-        <v>-0.01931848798348261</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.01813063940438138</v>
+      </c>
+      <c r="I34">
+        <v>0.04149497726392803</v>
+      </c>
+      <c r="J34">
+        <v>-0.06947503973093633</v>
+      </c>
+      <c r="K34">
+        <v>0.02116588257860454</v>
+      </c>
+      <c r="L34">
+        <v>-0.05060353601974279</v>
+      </c>
+      <c r="M34">
+        <v>0.1233618478709827</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>-0.0440545660457734</v>
+        <v>0.02545504157238335</v>
       </c>
       <c r="C35">
-        <v>0.03831531481369059</v>
+        <v>-0.02525317642781714</v>
       </c>
       <c r="D35">
-        <v>-0.007659119241672591</v>
+        <v>0.0003016609410392792</v>
       </c>
       <c r="E35">
-        <v>0.01611717356657938</v>
+        <v>0.0007914684584949834</v>
       </c>
       <c r="F35">
-        <v>-0.003790933185418039</v>
+        <v>0.03416353605833705</v>
       </c>
       <c r="G35">
-        <v>-0.005441246541488673</v>
+        <v>0.007480409559774645</v>
       </c>
       <c r="H35">
-        <v>0.009534183649522654</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.0191459382163502</v>
+      </c>
+      <c r="I35">
+        <v>0.02019385527434468</v>
+      </c>
+      <c r="J35">
+        <v>-0.06266425631977456</v>
+      </c>
+      <c r="K35">
+        <v>-0.05097547044887642</v>
+      </c>
+      <c r="L35">
+        <v>-0.03205577122503597</v>
+      </c>
+      <c r="M35">
+        <v>0.01214575992837529</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>-0.0342421484651815</v>
+        <v>0.02757804815323901</v>
       </c>
       <c r="C36">
-        <v>0.01992703173361011</v>
+        <v>-0.01730301864678958</v>
       </c>
       <c r="D36">
-        <v>0.02437891432421717</v>
+        <v>0.01322067831826628</v>
       </c>
       <c r="E36">
-        <v>0.04143680194555289</v>
+        <v>0.01476602555519588</v>
       </c>
       <c r="F36">
-        <v>0.02881011217210746</v>
+        <v>0.06552912463327444</v>
       </c>
       <c r="G36">
-        <v>-0.006818248884430737</v>
+        <v>-0.0002833503583501683</v>
       </c>
       <c r="H36">
-        <v>0.03506445910851141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.008676350265987259</v>
+      </c>
+      <c r="I36">
+        <v>-0.01326514725978046</v>
+      </c>
+      <c r="J36">
+        <v>0.01450426516168467</v>
+      </c>
+      <c r="K36">
+        <v>-0.04705626697192009</v>
+      </c>
+      <c r="L36">
+        <v>-0.007192338461976102</v>
+      </c>
+      <c r="M36">
+        <v>0.06223003403160827</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>-0.0506681109254848</v>
+        <v>0.02843677427435829</v>
       </c>
       <c r="C38">
-        <v>0.04217737519113623</v>
+        <v>-0.04775779772060419</v>
       </c>
       <c r="D38">
-        <v>-0.001113905659506159</v>
+        <v>0.02213288229702146</v>
       </c>
       <c r="E38">
-        <v>0.04198074750337116</v>
+        <v>0.009557030663507202</v>
       </c>
       <c r="F38">
-        <v>0.06023285557018737</v>
+        <v>-0.04145750316135164</v>
       </c>
       <c r="G38">
-        <v>-0.02043151431752119</v>
+        <v>0.06082102455361089</v>
       </c>
       <c r="H38">
-        <v>-0.01889862279779833</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.005487686251135007</v>
+      </c>
+      <c r="I38">
+        <v>0.01690767596635043</v>
+      </c>
+      <c r="J38">
+        <v>-0.004543463037571123</v>
+      </c>
+      <c r="K38">
+        <v>-0.06161244707864457</v>
+      </c>
+      <c r="L38">
+        <v>0.09896878426013235</v>
+      </c>
+      <c r="M38">
+        <v>-0.1030862297928905</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>-0.09905557003649498</v>
+        <v>0.1041911204054532</v>
       </c>
       <c r="C39">
-        <v>0.08153387748905137</v>
+        <v>-0.09452408884376473</v>
       </c>
       <c r="D39">
-        <v>-0.006940498150524366</v>
+        <v>-0.08425044070856244</v>
       </c>
       <c r="E39">
-        <v>0.03414515628650232</v>
+        <v>-0.02518033962130138</v>
       </c>
       <c r="F39">
-        <v>0.01917030844348438</v>
+        <v>0.1720313814586518</v>
       </c>
       <c r="G39">
-        <v>-0.1046555409999156</v>
+        <v>0.08073055714786058</v>
       </c>
       <c r="H39">
-        <v>-0.08035971521293192</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.09325563202495225</v>
+      </c>
+      <c r="I39">
+        <v>0.01561651035121771</v>
+      </c>
+      <c r="J39">
+        <v>-0.1506785577514137</v>
+      </c>
+      <c r="K39">
+        <v>0.1225326060764111</v>
+      </c>
+      <c r="L39">
+        <v>-0.1020399744692191</v>
+      </c>
+      <c r="M39">
+        <v>-0.01827145812526068</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>-0.04505760673342502</v>
+        <v>0.0325194955238109</v>
       </c>
       <c r="C40">
-        <v>0.02958374510274215</v>
+        <v>-0.05871525620247788</v>
       </c>
       <c r="D40">
-        <v>-0.05808511760241983</v>
+        <v>0.04397551633722097</v>
       </c>
       <c r="E40">
-        <v>0.120857800486303</v>
+        <v>0.01363915596656626</v>
       </c>
       <c r="F40">
-        <v>0.06614088730761992</v>
+        <v>0.1090155081479342</v>
       </c>
       <c r="G40">
-        <v>-0.1177538791414571</v>
+        <v>-0.0523602538111255</v>
       </c>
       <c r="H40">
-        <v>-0.0562392911570067</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.08131601239750581</v>
+      </c>
+      <c r="I40">
+        <v>0.03655778871445061</v>
+      </c>
+      <c r="J40">
+        <v>-0.012161199469748</v>
+      </c>
+      <c r="K40">
+        <v>-0.06889738178165153</v>
+      </c>
+      <c r="L40">
+        <v>0.1304886550805739</v>
+      </c>
+      <c r="M40">
+        <v>-0.06388944383923376</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>-0.04612012139900463</v>
+        <v>0.04014374790492641</v>
       </c>
       <c r="C41">
-        <v>0.04495623472987483</v>
+        <v>-0.0388371515781028</v>
       </c>
       <c r="D41">
-        <v>0.002213059377542043</v>
+        <v>-0.0148997965068047</v>
       </c>
       <c r="E41">
-        <v>0.001645971780472527</v>
+        <v>-0.0009437369327894891</v>
       </c>
       <c r="F41">
-        <v>0.03318787254232701</v>
+        <v>0.02680972622265374</v>
       </c>
       <c r="G41">
-        <v>-0.0140545145521552</v>
+        <v>0.01941854330053333</v>
       </c>
       <c r="H41">
-        <v>-0.0136983984559774</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.003718454077514344</v>
+      </c>
+      <c r="I41">
+        <v>0.01571615533924076</v>
+      </c>
+      <c r="J41">
+        <v>-0.03890771687079152</v>
+      </c>
+      <c r="K41">
+        <v>-0.0387136216510793</v>
+      </c>
+      <c r="L41">
+        <v>0.007614591428447274</v>
+      </c>
+      <c r="M41">
+        <v>0.01923681551600017</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>-0.06089124335778023</v>
+        <v>0.05073668648687608</v>
       </c>
       <c r="C43">
-        <v>0.0344628421467674</v>
+        <v>-0.04489004978967111</v>
       </c>
       <c r="D43">
-        <v>0.02383305013339682</v>
+        <v>0.01166607296529894</v>
       </c>
       <c r="E43">
-        <v>0.03435093112934439</v>
+        <v>0.01450948520188992</v>
       </c>
       <c r="F43">
-        <v>0.0187896550334456</v>
+        <v>0.01832323626485013</v>
       </c>
       <c r="G43">
-        <v>0.002735180859320646</v>
+        <v>0.04526310356049106</v>
       </c>
       <c r="H43">
-        <v>-0.009254028934050472</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.007979890357014284</v>
+      </c>
+      <c r="I43">
+        <v>-0.01443788485649225</v>
+      </c>
+      <c r="J43">
+        <v>-0.04586168383039022</v>
+      </c>
+      <c r="K43">
+        <v>-0.0156914435961728</v>
+      </c>
+      <c r="L43">
+        <v>-0.009030673535084251</v>
+      </c>
+      <c r="M43">
+        <v>0.0280405472974222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>-0.04621660984896819</v>
+        <v>0.0845133621694911</v>
       </c>
       <c r="C44">
-        <v>0.01470997727876295</v>
+        <v>-0.05955659526671198</v>
       </c>
       <c r="D44">
-        <v>0.07587591799308038</v>
+        <v>0.07951178111093084</v>
       </c>
       <c r="E44">
-        <v>0.09554583327361671</v>
+        <v>0.1065736337160409</v>
       </c>
       <c r="F44">
-        <v>0.03664030181931415</v>
+        <v>0.1708085896019129</v>
       </c>
       <c r="G44">
-        <v>-0.122451368302496</v>
+        <v>-0.01450818026925713</v>
       </c>
       <c r="H44">
-        <v>0.01522805886552101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.02465776175534084</v>
+      </c>
+      <c r="I44">
+        <v>0.06546727441857804</v>
+      </c>
+      <c r="J44">
+        <v>-0.01057827383091749</v>
+      </c>
+      <c r="K44">
+        <v>0.0186058313543231</v>
+      </c>
+      <c r="L44">
+        <v>0.01838505659832973</v>
+      </c>
+      <c r="M44">
+        <v>-0.07379377722988383</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>-0.02552350728802125</v>
+        <v>0.03466064280278486</v>
       </c>
       <c r="C46">
-        <v>0.04310138468430477</v>
+        <v>-0.04146708996701798</v>
       </c>
       <c r="D46">
-        <v>0.01080588803804517</v>
+        <v>0.03948006742996781</v>
       </c>
       <c r="E46">
-        <v>0.04221942563702673</v>
+        <v>0.04380770696378182</v>
       </c>
       <c r="F46">
-        <v>0.01186250021713943</v>
+        <v>0.04295098099641152</v>
       </c>
       <c r="G46">
-        <v>0.002536849050075325</v>
+        <v>-0.008286701335416344</v>
       </c>
       <c r="H46">
-        <v>0.01132780890216935</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.001163720577994864</v>
+      </c>
+      <c r="I46">
+        <v>0.03332321019882344</v>
+      </c>
+      <c r="J46">
+        <v>-0.004453562906322282</v>
+      </c>
+      <c r="K46">
+        <v>-0.1206757189584421</v>
+      </c>
+      <c r="L46">
+        <v>-0.02800922332685854</v>
+      </c>
+      <c r="M46">
+        <v>0.02683500870371187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>-0.02435267063815579</v>
+        <v>0.04070604134105834</v>
       </c>
       <c r="C47">
-        <v>0.005525538188660922</v>
+        <v>-0.02739653609429622</v>
       </c>
       <c r="D47">
-        <v>-0.002750882241631579</v>
+        <v>0.01785283704386262</v>
       </c>
       <c r="E47">
-        <v>0.06669693796861603</v>
+        <v>0.01375255464069769</v>
       </c>
       <c r="F47">
-        <v>0.02241478826555295</v>
+        <v>0.04114322522608226</v>
       </c>
       <c r="G47">
-        <v>0.006338920962593124</v>
+        <v>0.003241732440121114</v>
       </c>
       <c r="H47">
-        <v>0.04399902454045428</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.009754852496057963</v>
+      </c>
+      <c r="I47">
+        <v>-0.017535849630587</v>
+      </c>
+      <c r="J47">
+        <v>0.009641180020964464</v>
+      </c>
+      <c r="K47">
+        <v>-0.04566985407902645</v>
+      </c>
+      <c r="L47">
+        <v>0.007151309318194622</v>
+      </c>
+      <c r="M47">
+        <v>0.05595596178497015</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>-0.03517510685721188</v>
+        <v>0.04281510531136748</v>
       </c>
       <c r="C48">
-        <v>0.02241307012661354</v>
+        <v>-0.02175799342118423</v>
       </c>
       <c r="D48">
-        <v>-0.004443035839721329</v>
+        <v>0.01082590605062575</v>
       </c>
       <c r="E48">
-        <v>0.05425048733567264</v>
+        <v>0.004706845394457397</v>
       </c>
       <c r="F48">
-        <v>0.02101314142969296</v>
+        <v>0.06857796789950166</v>
       </c>
       <c r="G48">
-        <v>0.01990809069273703</v>
+        <v>-0.03109896313096946</v>
       </c>
       <c r="H48">
-        <v>-0.001210174053883411</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.02569232887734939</v>
+      </c>
+      <c r="I48">
+        <v>-0.01009933161456935</v>
+      </c>
+      <c r="J48">
+        <v>-0.006959421267512221</v>
+      </c>
+      <c r="K48">
+        <v>-0.04667316215882705</v>
+      </c>
+      <c r="L48">
+        <v>-0.03834441015818676</v>
+      </c>
+      <c r="M48">
+        <v>0.05699129646514705</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>-0.2173892680084823</v>
+        <v>0.2254068936348373</v>
       </c>
       <c r="C49">
-        <v>0.119150577105992</v>
+        <v>-0.07803946953079539</v>
       </c>
       <c r="D49">
-        <v>0.04378474253868631</v>
+        <v>-0.05041667999950732</v>
       </c>
       <c r="E49">
-        <v>-0.04794649775215808</v>
+        <v>0.0246127864947877</v>
       </c>
       <c r="F49">
-        <v>-0.1721223283684474</v>
+        <v>-0.2413708815642067</v>
       </c>
       <c r="G49">
-        <v>-0.04709305569617181</v>
+        <v>-0.0666160628599584</v>
       </c>
       <c r="H49">
-        <v>-0.03740662258162349</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.1758906640677375</v>
+      </c>
+      <c r="I49">
+        <v>0.08673565169425657</v>
+      </c>
+      <c r="J49">
+        <v>0.02704238840575247</v>
+      </c>
+      <c r="K49">
+        <v>0.1568281947513767</v>
+      </c>
+      <c r="L49">
+        <v>-0.04056084137948964</v>
+      </c>
+      <c r="M49">
+        <v>0.01949009106511133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>-0.05421446956233506</v>
+        <v>0.04693087943101919</v>
       </c>
       <c r="C50">
-        <v>0.02283541081456223</v>
+        <v>-0.04074256817625178</v>
       </c>
       <c r="D50">
-        <v>-0.004125433775475859</v>
+        <v>0.001353346660833923</v>
       </c>
       <c r="E50">
-        <v>0.02874383372553389</v>
+        <v>-0.009963860065122171</v>
       </c>
       <c r="F50">
-        <v>0.04577383315300677</v>
+        <v>0.05271568371845503</v>
       </c>
       <c r="G50">
-        <v>0.04597823526426754</v>
+        <v>0.02892308710969001</v>
       </c>
       <c r="H50">
-        <v>0.0366631335303637</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.02897240334932426</v>
+      </c>
+      <c r="I50">
+        <v>-0.009300668275307254</v>
+      </c>
+      <c r="J50">
+        <v>0.01693808360840884</v>
+      </c>
+      <c r="K50">
+        <v>-0.05607741738319949</v>
+      </c>
+      <c r="L50">
+        <v>-0.02078098199517861</v>
+      </c>
+      <c r="M50">
+        <v>-0.003714635405159889</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>-0.03009233742095642</v>
+        <v>0.02643482854610059</v>
       </c>
       <c r="C51">
-        <v>0.01622649284024755</v>
+        <v>-0.005678676586262247</v>
       </c>
       <c r="D51">
-        <v>0.005406534544908035</v>
+        <v>-0.00100795082250739</v>
       </c>
       <c r="E51">
-        <v>0.002521691458614387</v>
+        <v>0.01681669204265694</v>
       </c>
       <c r="F51">
-        <v>0.01543693700648939</v>
+        <v>-0.02341014043125254</v>
       </c>
       <c r="G51">
-        <v>-0.006675426197372286</v>
+        <v>0.003966403228839107</v>
       </c>
       <c r="H51">
-        <v>-0.01997139770927532</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.004724661144543419</v>
+      </c>
+      <c r="I51">
+        <v>0.008297058806112676</v>
+      </c>
+      <c r="J51">
+        <v>-0.01962359047677619</v>
+      </c>
+      <c r="K51">
+        <v>0.07425459647242447</v>
+      </c>
+      <c r="L51">
+        <v>-0.03646900040800431</v>
+      </c>
+      <c r="M51">
+        <v>-0.01190828214895855</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.03816511213304544</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.01190021350571376</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.01719995483763085</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.004597836154939787</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.02657534176720515</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.05257742223334824</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.01106719081140888</v>
+      </c>
+      <c r="I52">
+        <v>0.00936581690150151</v>
+      </c>
+      <c r="J52">
+        <v>0.03095763465283587</v>
+      </c>
+      <c r="K52">
+        <v>0.01106520119511225</v>
+      </c>
+      <c r="L52">
+        <v>-0.01859464306591718</v>
+      </c>
+      <c r="M52">
+        <v>-0.04101891053636138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>-0.1693361985035377</v>
+        <v>0.160575706813069</v>
       </c>
       <c r="C53">
-        <v>0.004047737989737082</v>
+        <v>-0.04592784770550944</v>
       </c>
       <c r="D53">
-        <v>0.02619333940005037</v>
+        <v>-0.01501431671869571</v>
       </c>
       <c r="E53">
-        <v>-0.07885565860526743</v>
+        <v>-0.003260634110158465</v>
       </c>
       <c r="F53">
-        <v>0.2436965078761997</v>
+        <v>-0.04119396916668727</v>
       </c>
       <c r="G53">
-        <v>0.04732114668637896</v>
+        <v>0.1964081710329444</v>
       </c>
       <c r="H53">
-        <v>0.06048536331056915</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.1852699150298566</v>
+      </c>
+      <c r="I53">
+        <v>0.07219122556734248</v>
+      </c>
+      <c r="J53">
+        <v>0.110213471037701</v>
+      </c>
+      <c r="K53">
+        <v>-0.02237950883956803</v>
+      </c>
+      <c r="L53">
+        <v>0.01505314125428977</v>
+      </c>
+      <c r="M53">
+        <v>-0.0736625095979053</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>-0.04952246658932943</v>
+        <v>0.05518037500793388</v>
       </c>
       <c r="C54">
-        <v>0.03059935412461532</v>
+        <v>-0.04305253854059883</v>
       </c>
       <c r="D54">
-        <v>0.0262758427946475</v>
+        <v>0.01684205007373926</v>
       </c>
       <c r="E54">
-        <v>0.05654476070378777</v>
+        <v>0.02744709493029939</v>
       </c>
       <c r="F54">
-        <v>0.01874894787051551</v>
+        <v>0.1185284239226348</v>
       </c>
       <c r="G54">
-        <v>-0.003540346181110205</v>
+        <v>-0.05607886829163659</v>
       </c>
       <c r="H54">
-        <v>0.01541911473647663</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.0336167566634195</v>
+      </c>
+      <c r="I54">
+        <v>-0.0376416779390337</v>
+      </c>
+      <c r="J54">
+        <v>-0.03725774929545309</v>
+      </c>
+      <c r="K54">
+        <v>-0.1398754968761901</v>
+      </c>
+      <c r="L54">
+        <v>-0.008288621963161604</v>
+      </c>
+      <c r="M54">
+        <v>0.04714709376491052</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>-0.09018728825170044</v>
+        <v>0.08499185265555112</v>
       </c>
       <c r="C55">
-        <v>0.002395663938488806</v>
+        <v>-0.03714228077165426</v>
       </c>
       <c r="D55">
-        <v>0.01809468757962909</v>
+        <v>-0.02854687944661783</v>
       </c>
       <c r="E55">
-        <v>-0.01469706500881117</v>
+        <v>0.01029673410551316</v>
       </c>
       <c r="F55">
-        <v>0.197081177751627</v>
+        <v>0.01476328627212231</v>
       </c>
       <c r="G55">
-        <v>0.04822493255264468</v>
+        <v>0.102132617572901</v>
       </c>
       <c r="H55">
-        <v>0.07272757139887831</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.1389709054623374</v>
+      </c>
+      <c r="I55">
+        <v>0.04902539524297551</v>
+      </c>
+      <c r="J55">
+        <v>0.05769388476722515</v>
+      </c>
+      <c r="K55">
+        <v>-0.01249607604961043</v>
+      </c>
+      <c r="L55">
+        <v>0.004868726286624979</v>
+      </c>
+      <c r="M55">
+        <v>0.03201731854564503</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>-0.1628497233692374</v>
+        <v>0.1513704160936553</v>
       </c>
       <c r="C56">
-        <v>0.006598563219654991</v>
+        <v>-0.06691145234231909</v>
       </c>
       <c r="D56">
-        <v>0.02841172056903935</v>
+        <v>-0.0336078388434054</v>
       </c>
       <c r="E56">
-        <v>-0.08261108083581656</v>
+        <v>0.01764369271631695</v>
       </c>
       <c r="F56">
-        <v>0.2136413448397811</v>
+        <v>-0.02181548177812683</v>
       </c>
       <c r="G56">
-        <v>0.08800385625693037</v>
+        <v>0.1798291503681698</v>
       </c>
       <c r="H56">
-        <v>0.03830338413508281</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.1724325984160751</v>
+      </c>
+      <c r="I56">
+        <v>0.06777499763945287</v>
+      </c>
+      <c r="J56">
+        <v>0.08388062269952826</v>
+      </c>
+      <c r="K56">
+        <v>-0.01167302578224205</v>
+      </c>
+      <c r="L56">
+        <v>0.06110455135248074</v>
+      </c>
+      <c r="M56">
+        <v>-0.01660774473876705</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +3040,1829 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>-0.0223016745285701</v>
+        <v>0.03831683850711073</v>
       </c>
       <c r="C58">
-        <v>0.04285999337582014</v>
+        <v>-0.03351260900160402</v>
       </c>
       <c r="D58">
-        <v>-0.04978777454669346</v>
+        <v>0.08179235984233919</v>
       </c>
       <c r="E58">
-        <v>0.3752232694009767</v>
+        <v>0.007318183903586316</v>
       </c>
       <c r="F58">
-        <v>-0.3559705705428167</v>
+        <v>0.05638514300800999</v>
       </c>
       <c r="G58">
-        <v>0.1022997784401728</v>
+        <v>-0.01422646950705399</v>
       </c>
       <c r="H58">
-        <v>0.2452935148680447</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.1297611447216334</v>
+      </c>
+      <c r="I58">
+        <v>-0.06858831932082064</v>
+      </c>
+      <c r="J58">
+        <v>-0.1408764926223235</v>
+      </c>
+      <c r="K58">
+        <v>0.04175602239240564</v>
+      </c>
+      <c r="L58">
+        <v>-0.4489436067864547</v>
+      </c>
+      <c r="M58">
+        <v>0.06594665758627709</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>-0.214609274797001</v>
+        <v>0.2273242306168735</v>
       </c>
       <c r="C59">
-        <v>-0.3979967350466804</v>
+        <v>0.2947322594532534</v>
       </c>
       <c r="D59">
-        <v>0.08159281129822962</v>
+        <v>-0.04200738830278457</v>
       </c>
       <c r="E59">
-        <v>-0.004177505995683336</v>
+        <v>0.008001214744407494</v>
       </c>
       <c r="F59">
-        <v>0.04947386550579041</v>
+        <v>0.01932527968723827</v>
       </c>
       <c r="G59">
-        <v>-0.05119027362050487</v>
+        <v>0.01749256809806029</v>
       </c>
       <c r="H59">
-        <v>-0.05565316344545524</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.1129648076736218</v>
+      </c>
+      <c r="I59">
+        <v>0.0305000785366147</v>
+      </c>
+      <c r="J59">
+        <v>-0.02848757735507312</v>
+      </c>
+      <c r="K59">
+        <v>0.1018235612159083</v>
+      </c>
+      <c r="L59">
+        <v>0.06711934452960422</v>
+      </c>
+      <c r="M59">
+        <v>-0.05075542955595105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>-0.257063504976995</v>
+        <v>0.2398269501783999</v>
       </c>
       <c r="C60">
-        <v>0.07540011098554895</v>
+        <v>-0.1223969284918653</v>
       </c>
       <c r="D60">
-        <v>0.07695157341271967</v>
+        <v>-0.06291663051475141</v>
       </c>
       <c r="E60">
-        <v>-0.005712419596065537</v>
+        <v>0.04183452615946766</v>
       </c>
       <c r="F60">
-        <v>-0.03632050466840506</v>
+        <v>-0.1191923727549778</v>
       </c>
       <c r="G60">
-        <v>0.01719959628926402</v>
+        <v>-0.00382568830925685</v>
       </c>
       <c r="H60">
-        <v>0.03068724139664742</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.07995447839659177</v>
+      </c>
+      <c r="I60">
+        <v>-0.07149337000947609</v>
+      </c>
+      <c r="J60">
+        <v>0.2102383348846709</v>
+      </c>
+      <c r="K60">
+        <v>0.1625685249890352</v>
+      </c>
+      <c r="L60">
+        <v>-0.01246008029203682</v>
+      </c>
+      <c r="M60">
+        <v>-0.09218372033671395</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>-0.08815561488038544</v>
+        <v>0.1030250096972266</v>
       </c>
       <c r="C61">
-        <v>0.05158512460034054</v>
+        <v>-0.06607374451523261</v>
       </c>
       <c r="D61">
-        <v>0.004127901870842168</v>
+        <v>-0.04666791945142546</v>
       </c>
       <c r="E61">
-        <v>0.001042459386399402</v>
+        <v>0.01442809097518108</v>
       </c>
       <c r="F61">
-        <v>0.01951638562839149</v>
+        <v>0.1433324958676755</v>
       </c>
       <c r="G61">
-        <v>-0.03264419281500911</v>
+        <v>0.07474396757706325</v>
       </c>
       <c r="H61">
-        <v>-0.06019021553547542</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.03249829329787504</v>
+      </c>
+      <c r="I61">
+        <v>0.03732454364914078</v>
+      </c>
+      <c r="J61">
+        <v>-0.1011558853881312</v>
+      </c>
+      <c r="K61">
+        <v>0.02083621107681957</v>
+      </c>
+      <c r="L61">
+        <v>-0.04718877717931673</v>
+      </c>
+      <c r="M61">
+        <v>0.009253224774314511</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>-0.15763567559865</v>
+        <v>0.142938131614187</v>
       </c>
       <c r="C62">
-        <v>0.0355980176010865</v>
+        <v>-0.06998263781115706</v>
       </c>
       <c r="D62">
-        <v>-0.01345515433146627</v>
+        <v>-0.03204592061969203</v>
       </c>
       <c r="E62">
-        <v>-0.1454373553914881</v>
+        <v>-0.02805770732067876</v>
       </c>
       <c r="F62">
-        <v>0.2159365737902127</v>
+        <v>-0.03691305878031816</v>
       </c>
       <c r="G62">
-        <v>0.02644416859369714</v>
+        <v>0.1344538623951142</v>
       </c>
       <c r="H62">
-        <v>0.01105295237079382</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.1563015973081157</v>
+      </c>
+      <c r="I62">
+        <v>0.08877803530696095</v>
+      </c>
+      <c r="J62">
+        <v>0.1114030518909324</v>
+      </c>
+      <c r="K62">
+        <v>-0.07007365883858034</v>
+      </c>
+      <c r="L62">
+        <v>0.0761525302005901</v>
+      </c>
+      <c r="M62">
+        <v>0.06255275784347404</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>-0.03561736684362944</v>
+        <v>0.04570045998551902</v>
       </c>
       <c r="C63">
-        <v>0.0302264063317957</v>
+        <v>-0.02920598997579199</v>
       </c>
       <c r="D63">
-        <v>-0.002084192413814887</v>
+        <v>-0.003136689673332093</v>
       </c>
       <c r="E63">
-        <v>0.004580225376309861</v>
+        <v>-0.01514510139692463</v>
       </c>
       <c r="F63">
-        <v>0.02138772310030652</v>
+        <v>0.07347896294558225</v>
       </c>
       <c r="G63">
-        <v>-0.002310096579298042</v>
+        <v>-0.009077258307913914</v>
       </c>
       <c r="H63">
-        <v>0.05282362937853324</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.01093134235329554</v>
+      </c>
+      <c r="I63">
+        <v>0.0008643179513711369</v>
+      </c>
+      <c r="J63">
+        <v>-0.01432663478803358</v>
+      </c>
+      <c r="K63">
+        <v>-0.038799502060945</v>
+      </c>
+      <c r="L63">
+        <v>-0.04195955652252823</v>
+      </c>
+      <c r="M63">
+        <v>0.03759562999889247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>-0.1082501872997173</v>
+        <v>0.09920438086067303</v>
       </c>
       <c r="C64">
-        <v>0.03529747797216107</v>
+        <v>-0.04572166634600021</v>
       </c>
       <c r="D64">
-        <v>0.04026312591492803</v>
+        <v>0.005901423310101757</v>
       </c>
       <c r="E64">
-        <v>0.0447474934455566</v>
+        <v>0.042089198913144</v>
       </c>
       <c r="F64">
-        <v>-0.006558176561378447</v>
+        <v>0.07612554198493519</v>
       </c>
       <c r="G64">
-        <v>-0.06078017931490608</v>
+        <v>0.01755517078211666</v>
       </c>
       <c r="H64">
-        <v>-0.033073910326622</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.08449537822956102</v>
+      </c>
+      <c r="I64">
+        <v>-0.03575207705793433</v>
+      </c>
+      <c r="J64">
+        <v>-0.0266631449342892</v>
+      </c>
+      <c r="K64">
+        <v>-0.0006672816949478624</v>
+      </c>
+      <c r="L64">
+        <v>0.001071226857544443</v>
+      </c>
+      <c r="M64">
+        <v>-0.04719515860512213</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>-0.1253764242663794</v>
+        <v>0.1246325809000448</v>
       </c>
       <c r="C65">
-        <v>0.04437149400526375</v>
+        <v>-0.04864636405246157</v>
       </c>
       <c r="D65">
-        <v>0.02141240310970554</v>
+        <v>-0.01588248313802743</v>
       </c>
       <c r="E65">
-        <v>0.08943037979545544</v>
+        <v>-0.0313149323473924</v>
       </c>
       <c r="F65">
-        <v>-0.1545493401968737</v>
+        <v>-0.01299373066811229</v>
       </c>
       <c r="G65">
-        <v>0.1327436592080892</v>
+        <v>-0.109807405558392</v>
       </c>
       <c r="H65">
-        <v>0.6250988304110678</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.05103339074855421</v>
+      </c>
+      <c r="I65">
+        <v>-0.4559596951261914</v>
+      </c>
+      <c r="J65">
+        <v>0.4898019010736736</v>
+      </c>
+      <c r="K65">
+        <v>-0.1710165503660159</v>
+      </c>
+      <c r="L65">
+        <v>-0.1969712357464409</v>
+      </c>
+      <c r="M65">
+        <v>-0.02828887530029239</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>-0.1575528485584236</v>
+        <v>0.1341388042611606</v>
       </c>
       <c r="C66">
-        <v>0.1057365574304806</v>
+        <v>-0.1285701519939932</v>
       </c>
       <c r="D66">
-        <v>-0.01263591484514125</v>
+        <v>-0.09889305374805372</v>
       </c>
       <c r="E66">
-        <v>-0.005340042407014729</v>
+        <v>-0.03978526776429109</v>
       </c>
       <c r="F66">
-        <v>0.04923013773735262</v>
+        <v>0.1810912222716385</v>
       </c>
       <c r="G66">
-        <v>-0.2032229764640667</v>
+        <v>0.101814449379108</v>
       </c>
       <c r="H66">
-        <v>-0.1682791361788674</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.1145334830125645</v>
+      </c>
+      <c r="I66">
+        <v>0.07170948274560685</v>
+      </c>
+      <c r="J66">
+        <v>-0.1277859540609421</v>
+      </c>
+      <c r="K66">
+        <v>0.1601897495875943</v>
+      </c>
+      <c r="L66">
+        <v>-0.02899358350247331</v>
+      </c>
+      <c r="M66">
+        <v>-0.1182481730541498</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>-0.08845109696009597</v>
+        <v>0.07500053459093513</v>
       </c>
       <c r="C67">
-        <v>0.05605007972525271</v>
+        <v>-0.05720377410414618</v>
       </c>
       <c r="D67">
-        <v>0.02199420921586541</v>
+        <v>0.01971532220119702</v>
       </c>
       <c r="E67">
-        <v>0.0102062277594646</v>
+        <v>0.0253885410455236</v>
       </c>
       <c r="F67">
-        <v>0.04444806878721148</v>
+        <v>-0.04818652147920864</v>
       </c>
       <c r="G67">
-        <v>-0.02130645124505714</v>
+        <v>0.07426806473276798</v>
       </c>
       <c r="H67">
-        <v>-0.03779139619238968</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.0162568299238352</v>
+      </c>
+      <c r="I67">
+        <v>0.001171255199440265</v>
+      </c>
+      <c r="J67">
+        <v>-0.02599952877170073</v>
+      </c>
+      <c r="K67">
+        <v>0.01213659004720653</v>
+      </c>
+      <c r="L67">
+        <v>0.1486118929040736</v>
+      </c>
+      <c r="M67">
+        <v>-0.08381130687496414</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>-0.08619509612746896</v>
+        <v>0.1233516214716125</v>
       </c>
       <c r="C68">
-        <v>-0.2869346092133798</v>
+        <v>0.2709931181241579</v>
       </c>
       <c r="D68">
-        <v>0.0250507529427711</v>
+        <v>-0.007547465848662101</v>
       </c>
       <c r="E68">
-        <v>0.02726673212878803</v>
+        <v>-0.003525569634608823</v>
       </c>
       <c r="F68">
-        <v>0.02115577786602206</v>
+        <v>0.04207097750289958</v>
       </c>
       <c r="G68">
-        <v>0.04194041314591465</v>
+        <v>0.02386844831819636</v>
       </c>
       <c r="H68">
-        <v>0.02463490947159302</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.006038081851025331</v>
+      </c>
+      <c r="I68">
+        <v>-0.03027376158377875</v>
+      </c>
+      <c r="J68">
+        <v>0.02969610114500546</v>
+      </c>
+      <c r="K68">
+        <v>-0.03098240525040749</v>
+      </c>
+      <c r="L68">
+        <v>-0.04711548271494929</v>
+      </c>
+      <c r="M68">
+        <v>-0.001420363218836829</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>-0.03135184960822407</v>
+        <v>0.04521638932851429</v>
       </c>
       <c r="C69">
-        <v>0.01847349261135392</v>
+        <v>-0.02062096115268904</v>
       </c>
       <c r="D69">
-        <v>0.0039749378405583</v>
+        <v>0.005202148791622347</v>
       </c>
       <c r="E69">
-        <v>0.008195445567494611</v>
+        <v>0.005684645603323735</v>
       </c>
       <c r="F69">
-        <v>0.03142087976575504</v>
+        <v>0.02221011643226982</v>
       </c>
       <c r="G69">
-        <v>-0.03327021364411022</v>
+        <v>0.02876823767237374</v>
       </c>
       <c r="H69">
-        <v>0.01859357369563959</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.0003553222228078686</v>
+      </c>
+      <c r="I69">
+        <v>-0.005965067804620683</v>
+      </c>
+      <c r="J69">
+        <v>-0.0121305126209573</v>
+      </c>
+      <c r="K69">
+        <v>-0.01612630242059423</v>
+      </c>
+      <c r="L69">
+        <v>0.01474967611849348</v>
+      </c>
+      <c r="M69">
+        <v>0.06245601645679347</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>-0.05961464862525331</v>
+        <v>0.05365275271441073</v>
       </c>
       <c r="C70">
-        <v>0.01442759601148104</v>
+        <v>-0.02757063517863385</v>
       </c>
       <c r="D70">
-        <v>0.03926644364733461</v>
+        <v>-0.02770276347237971</v>
       </c>
       <c r="E70">
-        <v>-0.006897223151969735</v>
+        <v>0.03857972028379578</v>
       </c>
       <c r="F70">
-        <v>-0.1034220061617867</v>
+        <v>0.01355070003296472</v>
       </c>
       <c r="G70">
-        <v>0.02455615340807046</v>
+        <v>-0.04890470118677059</v>
       </c>
       <c r="H70">
-        <v>-0.04695611784234508</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.02710804175455363</v>
+      </c>
+      <c r="I70">
+        <v>-0.07129519187711238</v>
+      </c>
+      <c r="J70">
+        <v>-0.1148962700964694</v>
+      </c>
+      <c r="K70">
+        <v>-0.3043716660184255</v>
+      </c>
+      <c r="L70">
+        <v>0.1907235182547043</v>
+      </c>
+      <c r="M70">
+        <v>-0.07135231262805715</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>-0.09182676271826486</v>
+        <v>0.1384779944253223</v>
       </c>
       <c r="C71">
-        <v>-0.2815532283507584</v>
+        <v>0.2794047265940703</v>
       </c>
       <c r="D71">
-        <v>0.05653773258266097</v>
+        <v>-0.01224025103702062</v>
       </c>
       <c r="E71">
-        <v>0.01375681110993178</v>
+        <v>0.01657273338324681</v>
       </c>
       <c r="F71">
-        <v>-0.008105194134415065</v>
+        <v>0.03780619039293463</v>
       </c>
       <c r="G71">
-        <v>0.01689383781437077</v>
+        <v>0.03117401496731613</v>
       </c>
       <c r="H71">
-        <v>0.003212177526137422</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.01886603943707954</v>
+      </c>
+      <c r="I71">
+        <v>-0.01594061480559224</v>
+      </c>
+      <c r="J71">
+        <v>0.004616181966693895</v>
+      </c>
+      <c r="K71">
+        <v>-0.00602170994651621</v>
+      </c>
+      <c r="L71">
+        <v>-0.02466494176063852</v>
+      </c>
+      <c r="M71">
+        <v>0.006897091550923748</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>-0.1818460209122311</v>
+        <v>0.1483592463112361</v>
       </c>
       <c r="C72">
-        <v>0.005906466275052817</v>
+        <v>-0.025833780092138</v>
       </c>
       <c r="D72">
-        <v>-0.239132236438663</v>
+        <v>0.0005998278047659567</v>
       </c>
       <c r="E72">
-        <v>-0.03872952210225226</v>
+        <v>-0.1751563822616169</v>
       </c>
       <c r="F72">
-        <v>0.07695391644549773</v>
+        <v>0.04038722814473723</v>
       </c>
       <c r="G72">
-        <v>-0.0568559046508617</v>
+        <v>0.05194654791157521</v>
       </c>
       <c r="H72">
-        <v>0.1181210726456599</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.02157097373883623</v>
+      </c>
+      <c r="I72">
+        <v>-0.04193894486983279</v>
+      </c>
+      <c r="J72">
+        <v>0.1439542664763265</v>
+      </c>
+      <c r="K72">
+        <v>0.0281998469864356</v>
+      </c>
+      <c r="L72">
+        <v>0.03099014162085188</v>
+      </c>
+      <c r="M72">
+        <v>-0.02962214235911999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>-0.2973008782992504</v>
+        <v>0.2426620886130218</v>
       </c>
       <c r="C73">
-        <v>0.188388474577147</v>
+        <v>-0.1507241399924942</v>
       </c>
       <c r="D73">
-        <v>0.09905323270310766</v>
+        <v>-0.1395153047037642</v>
       </c>
       <c r="E73">
-        <v>-0.02617737644590068</v>
+        <v>0.09660915613264311</v>
       </c>
       <c r="F73">
-        <v>-0.1890772637319298</v>
+        <v>-0.443738610087562</v>
       </c>
       <c r="G73">
-        <v>0.02750003253398867</v>
+        <v>0.03242014069896202</v>
       </c>
       <c r="H73">
-        <v>0.1355097394187924</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.3102149130708651</v>
+      </c>
+      <c r="I73">
+        <v>0.02662593892231009</v>
+      </c>
+      <c r="J73">
+        <v>-0.02519636816784721</v>
+      </c>
+      <c r="K73">
+        <v>0.3275468359497185</v>
+      </c>
+      <c r="L73">
+        <v>-0.1471297812836815</v>
+      </c>
+      <c r="M73">
+        <v>-0.1293012258146341</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>-0.09409605320667891</v>
+        <v>0.09962443054967435</v>
       </c>
       <c r="C74">
-        <v>0.03559773479794526</v>
+        <v>-0.07058053503605403</v>
       </c>
       <c r="D74">
-        <v>0.004122174517554021</v>
+        <v>-0.01129183885982733</v>
       </c>
       <c r="E74">
-        <v>-0.01577136072431435</v>
+        <v>-0.007729647305195235</v>
       </c>
       <c r="F74">
-        <v>0.1166966141164655</v>
+        <v>-0.01709719579836219</v>
       </c>
       <c r="G74">
-        <v>0.05731283697128044</v>
+        <v>0.1498014386872723</v>
       </c>
       <c r="H74">
-        <v>0.06195227522278979</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.0536242245330395</v>
+      </c>
+      <c r="I74">
+        <v>0.03763550348926323</v>
+      </c>
+      <c r="J74">
+        <v>0.04434814367580513</v>
+      </c>
+      <c r="K74">
+        <v>-0.007574771857009205</v>
+      </c>
+      <c r="L74">
+        <v>-0.007606159335490086</v>
+      </c>
+      <c r="M74">
+        <v>0.006354906846687778</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>-0.0886463537869915</v>
+        <v>0.09636654355191999</v>
       </c>
       <c r="C75">
-        <v>0.01392859210299175</v>
+        <v>-0.05127328021844557</v>
       </c>
       <c r="D75">
-        <v>0.005454951694964987</v>
+        <v>-0.008537568144706359</v>
       </c>
       <c r="E75">
-        <v>-0.04442724297484003</v>
+        <v>-0.007828825432016986</v>
       </c>
       <c r="F75">
-        <v>0.1051067930412351</v>
+        <v>-0.01937836700422856</v>
       </c>
       <c r="G75">
-        <v>0.05994826604005388</v>
+        <v>0.0743412073869783</v>
       </c>
       <c r="H75">
-        <v>0.00948492771096369</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.1138143099265103</v>
+      </c>
+      <c r="I75">
+        <v>0.02371883715292741</v>
+      </c>
+      <c r="J75">
+        <v>0.04199120301574148</v>
+      </c>
+      <c r="K75">
+        <v>-0.003124926407384938</v>
+      </c>
+      <c r="L75">
+        <v>0.02579908292714832</v>
+      </c>
+      <c r="M75">
+        <v>0.07392904652847947</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>-0.1304486467362256</v>
+        <v>0.07828005731195899</v>
       </c>
       <c r="C76">
-        <v>0.02739088757903179</v>
+        <v>-0.05743379169369497</v>
       </c>
       <c r="D76">
-        <v>0.02015344657430554</v>
+        <v>-0.002764161259935805</v>
       </c>
       <c r="E76">
-        <v>-0.02228385468722413</v>
+        <v>0.009333795222376137</v>
       </c>
       <c r="F76">
-        <v>0.2204381541954723</v>
+        <v>-0.05098446788305325</v>
       </c>
       <c r="G76">
-        <v>0.09332284584101115</v>
+        <v>0.1215671753828222</v>
       </c>
       <c r="H76">
-        <v>0.05887004287661628</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.1681406443840062</v>
+      </c>
+      <c r="I76">
+        <v>0.05656661276620611</v>
+      </c>
+      <c r="J76">
+        <v>0.02542344111396147</v>
+      </c>
+      <c r="K76">
+        <v>-0.02514884266385289</v>
+      </c>
+      <c r="L76">
+        <v>0.008991119071627963</v>
+      </c>
+      <c r="M76">
+        <v>-0.02104782567979726</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>-0.0737783164577973</v>
+        <v>0.06919252777316193</v>
       </c>
       <c r="C77">
-        <v>0.03375286647322684</v>
+        <v>-0.02503194350490932</v>
       </c>
       <c r="D77">
-        <v>0.02733807287619035</v>
+        <v>-0.02382106923182168</v>
       </c>
       <c r="E77">
-        <v>0.1274537276285301</v>
+        <v>0.05535199614759687</v>
       </c>
       <c r="F77">
-        <v>-0.07946130886422877</v>
+        <v>0.2382804829863777</v>
       </c>
       <c r="G77">
-        <v>-0.6884808441378627</v>
+        <v>-0.09866684371688313</v>
       </c>
       <c r="H77">
-        <v>-0.04223988967167296</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.1733481792220391</v>
+      </c>
+      <c r="I77">
+        <v>-0.2564314833589263</v>
+      </c>
+      <c r="J77">
+        <v>0.0381296676601492</v>
+      </c>
+      <c r="K77">
+        <v>0.3381778213725857</v>
+      </c>
+      <c r="L77">
+        <v>0.6305253512621328</v>
+      </c>
+      <c r="M77">
+        <v>-0.01207971784605661</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>-0.1571787424502326</v>
+        <v>0.1522024415529383</v>
       </c>
       <c r="C78">
-        <v>0.09237227286987686</v>
+        <v>-0.1166155429734383</v>
       </c>
       <c r="D78">
-        <v>0.03009436863800452</v>
+        <v>0.1937579989479511</v>
       </c>
       <c r="E78">
-        <v>0.2000074031117998</v>
+        <v>0.08018764537488497</v>
       </c>
       <c r="F78">
-        <v>-0.000379865966929477</v>
+        <v>0.0842145968031814</v>
       </c>
       <c r="G78">
-        <v>-0.05649811495001071</v>
+        <v>-0.5646509563314126</v>
       </c>
       <c r="H78">
-        <v>-0.0612726141708036</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.5664501323859947</v>
+      </c>
+      <c r="I78">
+        <v>-0.03751246906046354</v>
+      </c>
+      <c r="J78">
+        <v>-0.09015318884545793</v>
+      </c>
+      <c r="K78">
+        <v>0.3247988098202765</v>
+      </c>
+      <c r="L78">
+        <v>-0.1046634035082818</v>
+      </c>
+      <c r="M78">
+        <v>-0.2025781916056378</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>-0.1365519420510411</v>
+        <v>0.1351723350488472</v>
       </c>
       <c r="C79">
-        <v>0.03635273588915376</v>
+        <v>-0.0758468200560522</v>
       </c>
       <c r="D79">
-        <v>0.008862581433826164</v>
+        <v>-0.00325614035686706</v>
       </c>
       <c r="E79">
-        <v>-0.05756625190918679</v>
+        <v>0.004651267296359432</v>
       </c>
       <c r="F79">
-        <v>0.1565315481227973</v>
+        <v>0.00857970349450593</v>
       </c>
       <c r="G79">
-        <v>0.04940210338735071</v>
+        <v>0.1323645626872269</v>
       </c>
       <c r="H79">
-        <v>0.009640267108537619</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.1132264281150135</v>
+      </c>
+      <c r="I79">
+        <v>0.0626501038380114</v>
+      </c>
+      <c r="J79">
+        <v>0.07785235142447901</v>
+      </c>
+      <c r="K79">
+        <v>-0.02316444140285735</v>
+      </c>
+      <c r="L79">
+        <v>0.03899718656807594</v>
+      </c>
+      <c r="M79">
+        <v>0.05848925853254896</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>-0.02921532816355026</v>
+        <v>0.0583772753744697</v>
       </c>
       <c r="C80">
-        <v>0.005170382391560674</v>
+        <v>-0.02818895680082658</v>
       </c>
       <c r="D80">
-        <v>0.006645385847221142</v>
+        <v>-0.07319939295905568</v>
       </c>
       <c r="E80">
-        <v>-0.04067898881409026</v>
+        <v>0.0178255956989356</v>
       </c>
       <c r="F80">
-        <v>0.003867513860572934</v>
+        <v>0.03998565680426301</v>
       </c>
       <c r="G80">
-        <v>-0.007851291259013529</v>
+        <v>-0.02300838891447407</v>
       </c>
       <c r="H80">
-        <v>0.09262939227164473</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.009133830955939219</v>
+      </c>
+      <c r="I80">
+        <v>-0.05069796765213783</v>
+      </c>
+      <c r="J80">
+        <v>-0.0513212554321438</v>
+      </c>
+      <c r="K80">
+        <v>-0.1368316094603208</v>
+      </c>
+      <c r="L80">
+        <v>-0.1355742009362368</v>
+      </c>
+      <c r="M80">
+        <v>-0.02004476575151767</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>-0.103059755894872</v>
+        <v>0.1214738245903629</v>
       </c>
       <c r="C81">
-        <v>0.03299154269142895</v>
+        <v>-0.06704611253416354</v>
       </c>
       <c r="D81">
-        <v>0.01901152000363349</v>
+        <v>-0.0006090357065049536</v>
       </c>
       <c r="E81">
-        <v>-0.06119757998417107</v>
+        <v>-0.00171099850159261</v>
       </c>
       <c r="F81">
-        <v>0.126474021265973</v>
+        <v>0.02340162757887133</v>
       </c>
       <c r="G81">
-        <v>0.0327190323161323</v>
+        <v>0.09113080657192464</v>
       </c>
       <c r="H81">
-        <v>-0.00604810447564794</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.101361580680976</v>
+      </c>
+      <c r="I81">
+        <v>0.06500901168702822</v>
+      </c>
+      <c r="J81">
+        <v>0.05177819456974684</v>
+      </c>
+      <c r="K81">
+        <v>-0.01103565593623922</v>
+      </c>
+      <c r="L81">
+        <v>0.0306755178526971</v>
+      </c>
+      <c r="M81">
+        <v>0.1041664327417281</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>-0.111310416382836</v>
+        <v>0.1246806294291027</v>
       </c>
       <c r="C82">
-        <v>0.03077144261787367</v>
+        <v>-0.05182667731799221</v>
       </c>
       <c r="D82">
-        <v>0.06863467990309441</v>
+        <v>-0.02678527720445845</v>
       </c>
       <c r="E82">
-        <v>-0.0762883900161145</v>
+        <v>0.004632104616070626</v>
       </c>
       <c r="F82">
-        <v>0.2325426525337451</v>
+        <v>-0.001766398587437638</v>
       </c>
       <c r="G82">
-        <v>0.06180082156114165</v>
+        <v>0.194678988139426</v>
       </c>
       <c r="H82">
-        <v>0.005477538935891429</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.1433302519716985</v>
+      </c>
+      <c r="I82">
+        <v>0.1233409235427335</v>
+      </c>
+      <c r="J82">
+        <v>-0.01218492798649904</v>
+      </c>
+      <c r="K82">
+        <v>-0.0681400699258701</v>
+      </c>
+      <c r="L82">
+        <v>0.05139723400617598</v>
+      </c>
+      <c r="M82">
+        <v>0.06930590157054937</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>-0.07974587176803809</v>
+        <v>0.07512439292724897</v>
       </c>
       <c r="C83">
-        <v>0.06869291461943913</v>
+        <v>-0.07799261258121279</v>
       </c>
       <c r="D83">
-        <v>0.046015061167012</v>
+        <v>-0.03371278929594026</v>
       </c>
       <c r="E83">
-        <v>-0.002282306404401361</v>
+        <v>0.02000650744466356</v>
       </c>
       <c r="F83">
-        <v>-0.04308900764185681</v>
+        <v>0.04789133622591062</v>
       </c>
       <c r="G83">
-        <v>-0.0323767580149816</v>
+        <v>0.06371139239936136</v>
       </c>
       <c r="H83">
-        <v>-0.04222974936324808</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.02631445210681072</v>
+      </c>
+      <c r="I83">
+        <v>-0.07681554964770243</v>
+      </c>
+      <c r="J83">
+        <v>-0.1325405496003359</v>
+      </c>
+      <c r="K83">
+        <v>-0.09640189611207703</v>
+      </c>
+      <c r="L83">
+        <v>0.01880243401466561</v>
+      </c>
+      <c r="M83">
+        <v>-0.09698728159518291</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>-0.0553415416671923</v>
+        <v>0.05577336089033116</v>
       </c>
       <c r="C84">
-        <v>0.04649443607751227</v>
+        <v>0.0148440655101773</v>
       </c>
       <c r="D84">
-        <v>-0.05726936811981674</v>
+        <v>0.0005665535996952685</v>
       </c>
       <c r="E84">
-        <v>0.01645689802151778</v>
+        <v>-0.02506909154561312</v>
       </c>
       <c r="F84">
-        <v>0.03459566582314062</v>
+        <v>0.01392522091380159</v>
       </c>
       <c r="G84">
-        <v>0.1558173661662143</v>
+        <v>-0.1687786080776124</v>
       </c>
       <c r="H84">
-        <v>-0.01716985385597426</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.0965316990942393</v>
+      </c>
+      <c r="I84">
+        <v>0.2409171709713185</v>
+      </c>
+      <c r="J84">
+        <v>-0.0878528059074483</v>
+      </c>
+      <c r="K84">
+        <v>-0.1075800693477375</v>
+      </c>
+      <c r="L84">
+        <v>-0.1652334430894458</v>
+      </c>
+      <c r="M84">
+        <v>-0.2526189731716268</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>-0.08924129400444929</v>
+        <v>0.1108450112790697</v>
       </c>
       <c r="C85">
-        <v>0.03250014852421472</v>
+        <v>-0.05102651674741255</v>
       </c>
       <c r="D85">
-        <v>0.04373608219257513</v>
+        <v>-0.01328394598114492</v>
       </c>
       <c r="E85">
-        <v>-0.03912699820831966</v>
+        <v>0.03411335509058513</v>
       </c>
       <c r="F85">
-        <v>0.1797445828020865</v>
+        <v>0.01054258542346353</v>
       </c>
       <c r="G85">
-        <v>0.01765728689948557</v>
+        <v>0.1370008942926446</v>
       </c>
       <c r="H85">
-        <v>0.05846410827753821</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.1175858088364461</v>
+      </c>
+      <c r="I85">
+        <v>0.06446805260714762</v>
+      </c>
+      <c r="J85">
+        <v>0.09571507257074467</v>
+      </c>
+      <c r="K85">
+        <v>-0.008448325406850811</v>
+      </c>
+      <c r="L85">
+        <v>0.04532688609059485</v>
+      </c>
+      <c r="M85">
+        <v>0.06553480977168437</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>-0.04224001002591656</v>
+        <v>0.07387363259619165</v>
       </c>
       <c r="C86">
-        <v>0.03478896018382693</v>
+        <v>-0.02755463198701902</v>
       </c>
       <c r="D86">
-        <v>0.02620101560272722</v>
+        <v>0.01880024727502029</v>
       </c>
       <c r="E86">
-        <v>0.03417006582113355</v>
+        <v>0.1160840599551649</v>
       </c>
       <c r="F86">
-        <v>-0.0001267123253880566</v>
+        <v>0.03011813260126353</v>
       </c>
       <c r="G86">
-        <v>-0.05107532699738993</v>
+        <v>-0.3631951329719103</v>
       </c>
       <c r="H86">
-        <v>0.1487166656664843</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.2121339250993076</v>
+      </c>
+      <c r="I86">
+        <v>0.6046159536624723</v>
+      </c>
+      <c r="J86">
+        <v>0.4122460787037836</v>
+      </c>
+      <c r="K86">
+        <v>-0.2066820515633155</v>
+      </c>
+      <c r="L86">
+        <v>0.12337238737169</v>
+      </c>
+      <c r="M86">
+        <v>-0.100842976750165</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>-0.08881432727010503</v>
+        <v>0.109938870898299</v>
       </c>
       <c r="C87">
-        <v>0.05636647407322726</v>
+        <v>-0.07561587512509635</v>
       </c>
       <c r="D87">
-        <v>-0.002700859454501715</v>
+        <v>0.02796343315625362</v>
       </c>
       <c r="E87">
-        <v>0.06314476802260957</v>
+        <v>0.0340751240277165</v>
       </c>
       <c r="F87">
-        <v>-0.001583072697872399</v>
+        <v>0.09796779976477638</v>
       </c>
       <c r="G87">
-        <v>-0.1284474712204927</v>
+        <v>-0.05552441359973144</v>
       </c>
       <c r="H87">
-        <v>-0.0355694185859745</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.1031239525660677</v>
+      </c>
+      <c r="I87">
+        <v>-0.06958684690972647</v>
+      </c>
+      <c r="J87">
+        <v>-0.02613423804749522</v>
+      </c>
+      <c r="K87">
+        <v>-0.0003735896532091129</v>
+      </c>
+      <c r="L87">
+        <v>0.1797211180455073</v>
+      </c>
+      <c r="M87">
+        <v>0.1119581520959407</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>-0.05522775280942009</v>
+        <v>0.05870129391681202</v>
       </c>
       <c r="C88">
-        <v>0.04036073767122131</v>
+        <v>-0.05552172015054</v>
       </c>
       <c r="D88">
-        <v>0.02161094045602489</v>
+        <v>-0.03099268287546396</v>
       </c>
       <c r="E88">
-        <v>0.009151818378109466</v>
+        <v>0.005494985257263117</v>
       </c>
       <c r="F88">
-        <v>-0.005735338504316652</v>
+        <v>0.04323842568058069</v>
       </c>
       <c r="G88">
-        <v>-0.03233669715467413</v>
+        <v>0.03423971742471896</v>
       </c>
       <c r="H88">
-        <v>-0.01384166975806693</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.02261596899847617</v>
+      </c>
+      <c r="I88">
+        <v>-0.001062622250622305</v>
+      </c>
+      <c r="J88">
+        <v>-0.03855578350438749</v>
+      </c>
+      <c r="K88">
+        <v>-0.01938250027134434</v>
+      </c>
+      <c r="L88">
+        <v>-0.05652197052087712</v>
+      </c>
+      <c r="M88">
+        <v>0.05198516212573128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>-0.1512837721892341</v>
+        <v>0.2073320947547149</v>
       </c>
       <c r="C89">
-        <v>-0.3384296610468153</v>
+        <v>0.3626030497301874</v>
       </c>
       <c r="D89">
-        <v>0.08737252858935919</v>
+        <v>0.04755006678281336</v>
       </c>
       <c r="E89">
-        <v>0.09257346125869431</v>
+        <v>0.07542062582238901</v>
       </c>
       <c r="F89">
-        <v>-0.05763916075418923</v>
+        <v>0.01301959535448159</v>
       </c>
       <c r="G89">
-        <v>-0.03646580694315954</v>
+        <v>-0.03384578669176089</v>
       </c>
       <c r="H89">
-        <v>0.000921512261277227</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.0152157280682979</v>
+      </c>
+      <c r="I89">
+        <v>0.00571282082267019</v>
+      </c>
+      <c r="J89">
+        <v>-0.07867319544229745</v>
+      </c>
+      <c r="K89">
+        <v>0.002940902145028685</v>
+      </c>
+      <c r="L89">
+        <v>-0.02513085296624886</v>
+      </c>
+      <c r="M89">
+        <v>0.05348842428440592</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>-0.117502062661309</v>
+        <v>0.1523135528194492</v>
       </c>
       <c r="C90">
-        <v>-0.2749992778035577</v>
+        <v>0.2684170047817578</v>
       </c>
       <c r="D90">
-        <v>0.0366574244707699</v>
+        <v>-0.008363867619181084</v>
       </c>
       <c r="E90">
-        <v>0.06198214064362947</v>
+        <v>0.01138362862957099</v>
       </c>
       <c r="F90">
-        <v>-0.03175273117225492</v>
+        <v>0.03675869789563663</v>
       </c>
       <c r="G90">
-        <v>-0.108038740104022</v>
+        <v>0.009767675442059328</v>
       </c>
       <c r="H90">
-        <v>-0.009276549704730477</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.0715016713018288</v>
+      </c>
+      <c r="I90">
+        <v>-0.004904230436333927</v>
+      </c>
+      <c r="J90">
+        <v>-0.009224296755641652</v>
+      </c>
+      <c r="K90">
+        <v>0.03669323703621737</v>
+      </c>
+      <c r="L90">
+        <v>-0.02267152735957869</v>
+      </c>
+      <c r="M90">
+        <v>-0.05354955816487803</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>-0.07951186108742649</v>
+        <v>0.08035387966786757</v>
       </c>
       <c r="C91">
-        <v>0.01914163630654374</v>
+        <v>-0.05321081477764664</v>
       </c>
       <c r="D91">
-        <v>0.0116082687924258</v>
+        <v>0.002637359241890261</v>
       </c>
       <c r="E91">
-        <v>0.007269065450614577</v>
+        <v>0.01061580845154951</v>
       </c>
       <c r="F91">
-        <v>0.09482188325850897</v>
+        <v>-0.004107937964558979</v>
       </c>
       <c r="G91">
-        <v>0.07154240266192252</v>
+        <v>0.07804081790975782</v>
       </c>
       <c r="H91">
-        <v>0.0071834047374963</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.07137689744715008</v>
+      </c>
+      <c r="I91">
+        <v>0.0453959565297518</v>
+      </c>
+      <c r="J91">
+        <v>0.0238798083008309</v>
+      </c>
+      <c r="K91">
+        <v>-0.0004812036239228419</v>
+      </c>
+      <c r="L91">
+        <v>-0.0082026954173529</v>
+      </c>
+      <c r="M91">
+        <v>0.00293365665733306</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>-0.1235696725037326</v>
+        <v>0.1711638140442074</v>
       </c>
       <c r="C92">
-        <v>-0.3149386380882668</v>
+        <v>0.313614197160991</v>
       </c>
       <c r="D92">
-        <v>0.07332622973502391</v>
+        <v>0.03551568942404647</v>
       </c>
       <c r="E92">
-        <v>0.05147000747156633</v>
+        <v>0.04885632842520454</v>
       </c>
       <c r="F92">
-        <v>-0.04091970368395065</v>
+        <v>0.03989172486077284</v>
       </c>
       <c r="G92">
-        <v>0.09771420304652641</v>
+        <v>0.0129285931536462</v>
       </c>
       <c r="H92">
-        <v>-0.01219471218084646</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.03196054879537708</v>
+      </c>
+      <c r="I92">
+        <v>0.01083127649570601</v>
+      </c>
+      <c r="J92">
+        <v>-0.05145738417232507</v>
+      </c>
+      <c r="K92">
+        <v>-0.007753566459252031</v>
+      </c>
+      <c r="L92">
+        <v>-0.05099467871655314</v>
+      </c>
+      <c r="M92">
+        <v>0.06533798656987518</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>-0.1232443020945838</v>
+        <v>0.1621844384953098</v>
       </c>
       <c r="C93">
-        <v>-0.2652688266847666</v>
+        <v>0.2881320632854548</v>
       </c>
       <c r="D93">
-        <v>0.04528742471094145</v>
+        <v>-0.03112361839140466</v>
       </c>
       <c r="E93">
-        <v>0.02155599829728348</v>
+        <v>0.007249119836676529</v>
       </c>
       <c r="F93">
-        <v>-0.03540633762970048</v>
+        <v>0.01557304554745841</v>
       </c>
       <c r="G93">
-        <v>-0.02188468081947658</v>
+        <v>-0.002981511813917696</v>
       </c>
       <c r="H93">
-        <v>-0.005753986989506034</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.04194923678637632</v>
+      </c>
+      <c r="I93">
+        <v>0.005221365506753105</v>
+      </c>
+      <c r="J93">
+        <v>0.01255499955586124</v>
+      </c>
+      <c r="K93">
+        <v>-0.0337386377590054</v>
+      </c>
+      <c r="L93">
+        <v>-0.004013736468056691</v>
+      </c>
+      <c r="M93">
+        <v>-0.02013046806915087</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>-0.09191474723544858</v>
+        <v>0.1136540362365047</v>
       </c>
       <c r="C94">
-        <v>0.05260895732276602</v>
+        <v>-0.07120264427341147</v>
       </c>
       <c r="D94">
-        <v>0.008018425854056684</v>
+        <v>0.01541261768424786</v>
       </c>
       <c r="E94">
-        <v>-0.004525938903968347</v>
+        <v>0.02019155409695555</v>
       </c>
       <c r="F94">
-        <v>0.152583867369383</v>
+        <v>-0.02026566383962112</v>
       </c>
       <c r="G94">
-        <v>0.09854334064211287</v>
+        <v>0.1137611896317099</v>
       </c>
       <c r="H94">
-        <v>0.04786070113496282</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.1039883848540059</v>
+      </c>
+      <c r="I94">
+        <v>0.03255610414904236</v>
+      </c>
+      <c r="J94">
+        <v>0.0319814534662398</v>
+      </c>
+      <c r="K94">
+        <v>0.001567967620646727</v>
+      </c>
+      <c r="L94">
+        <v>-0.0390030401395341</v>
+      </c>
+      <c r="M94">
+        <v>0.0239965191194921</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>-0.1094012776346251</v>
+        <v>0.1148313159188431</v>
       </c>
       <c r="C95">
-        <v>0.08040321689902517</v>
+        <v>-0.0748017197500518</v>
       </c>
       <c r="D95">
-        <v>0.06513660237018193</v>
+        <v>0.0241520457540349</v>
       </c>
       <c r="E95">
-        <v>0.04868872652758621</v>
+        <v>0.06636234709320471</v>
       </c>
       <c r="F95">
-        <v>-0.06235275375375914</v>
+        <v>0.04530794138255627</v>
       </c>
       <c r="G95">
-        <v>-0.04503471878650454</v>
+        <v>-0.2168417525757451</v>
       </c>
       <c r="H95">
-        <v>-0.001548102849040242</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.161133765549335</v>
+      </c>
+      <c r="I95">
+        <v>0.01006862247002267</v>
+      </c>
+      <c r="J95">
+        <v>0.007770205946670296</v>
+      </c>
+      <c r="K95">
+        <v>-0.01456811712119699</v>
+      </c>
+      <c r="L95">
+        <v>-0.03133060481436444</v>
+      </c>
+      <c r="M95">
+        <v>0.5884824786477654</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.0003557113457077307</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.0007974773035681002</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.0001766418017679619</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.0028064169796578</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.0006892948912713139</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>-0.004362450816503361</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.005602833668560141</v>
+      </c>
+      <c r="I96">
+        <v>-0.001634923976505194</v>
+      </c>
+      <c r="J96">
+        <v>7.40368535907025e-05</v>
+      </c>
+      <c r="K96">
+        <v>0.002170320369670728</v>
+      </c>
+      <c r="L96">
+        <v>-0.002847111877099709</v>
+      </c>
+      <c r="M96">
+        <v>-0.006902392847283427</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>-0.2355595843843984</v>
+        <v>0.1553696098675336</v>
       </c>
       <c r="C97">
-        <v>-0.09343488218826543</v>
+        <v>-0.01175287257478575</v>
       </c>
       <c r="D97">
-        <v>-0.8936353849815807</v>
+        <v>0.09776043436026141</v>
       </c>
       <c r="E97">
-        <v>-0.0957878355893359</v>
+        <v>-0.931141280121494</v>
       </c>
       <c r="F97">
-        <v>-0.1011927418872105</v>
+        <v>0.02764513381961472</v>
       </c>
       <c r="G97">
-        <v>-0.02843671896693706</v>
+        <v>-0.105037930805341</v>
       </c>
       <c r="H97">
-        <v>-0.02306503607367626</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.06327512519943963</v>
+      </c>
+      <c r="I97">
+        <v>0.06882739078767809</v>
+      </c>
+      <c r="J97">
+        <v>-0.02743028827217929</v>
+      </c>
+      <c r="K97">
+        <v>0.01111059539927208</v>
+      </c>
+      <c r="L97">
+        <v>0.03741148092785658</v>
+      </c>
+      <c r="M97">
+        <v>0.0005363792287954801</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>-0.3030121847194774</v>
+        <v>0.255224337367545</v>
       </c>
       <c r="C98">
-        <v>0.1250873887869613</v>
+        <v>-0.1112994495610205</v>
       </c>
       <c r="D98">
-        <v>0.123988975185144</v>
+        <v>0.01244349667161194</v>
       </c>
       <c r="E98">
-        <v>-0.2527930790814737</v>
+        <v>0.009988988567584354</v>
       </c>
       <c r="F98">
-        <v>-0.4564221611720283</v>
+        <v>-0.4718778610887637</v>
       </c>
       <c r="G98">
-        <v>0.3278463866876648</v>
+        <v>-0.2157171426235133</v>
       </c>
       <c r="H98">
-        <v>-0.4483954337844754</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.04075687527455353</v>
+      </c>
+      <c r="I98">
+        <v>-0.153521587100494</v>
+      </c>
+      <c r="J98">
+        <v>-0.4313415340681892</v>
+      </c>
+      <c r="K98">
+        <v>-0.3698936940117186</v>
+      </c>
+      <c r="L98">
+        <v>0.2161425420009127</v>
+      </c>
+      <c r="M98">
+        <v>0.02591395548696224</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>-0.06466254963156488</v>
+        <v>0.06699732552739361</v>
       </c>
       <c r="C99">
-        <v>0.05274432622967894</v>
+        <v>-0.05623555660733465</v>
       </c>
       <c r="D99">
-        <v>0.03479543126106895</v>
+        <v>0.005393671454304294</v>
       </c>
       <c r="E99">
-        <v>-0.00963083845333248</v>
+        <v>0.03698105049100366</v>
       </c>
       <c r="F99">
-        <v>-0.01322578803462086</v>
+        <v>-0.01831872489399052</v>
       </c>
       <c r="G99">
-        <v>-0.0138959730505215</v>
+        <v>0.01483823515409415</v>
       </c>
       <c r="H99">
-        <v>-0.07795084685685824</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.02342021279073032</v>
+      </c>
+      <c r="I99">
+        <v>0.004119749741717896</v>
+      </c>
+      <c r="J99">
+        <v>-0.03655481739786942</v>
+      </c>
+      <c r="K99">
+        <v>0.03992559649578736</v>
+      </c>
+      <c r="L99">
+        <v>0.0530746800273873</v>
+      </c>
+      <c r="M99">
+        <v>0.03938695758262075</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.003603644170845789</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.0009029751586475298</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.001882845017991899</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.01117766026796124</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.002702059552577611</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.0122089790047841</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>-0.001374542190114619</v>
+      </c>
+      <c r="I100">
+        <v>-0.01204123969239595</v>
+      </c>
+      <c r="J100">
+        <v>-0.01505334139299173</v>
+      </c>
+      <c r="K100">
+        <v>-0.0154450448566231</v>
+      </c>
+      <c r="L100">
+        <v>0.006745890688339885</v>
+      </c>
+      <c r="M100">
+        <v>-0.00448590227635432</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>-0.05018539676544779</v>
+        <v>0.04065889112932033</v>
       </c>
       <c r="C101">
-        <v>0.01448564141361034</v>
+        <v>-0.02846072847804475</v>
       </c>
       <c r="D101">
-        <v>0.01076624159052786</v>
+        <v>-0.005467029714400362</v>
       </c>
       <c r="E101">
-        <v>0.02821337773201505</v>
+        <v>0.02549527104688807</v>
       </c>
       <c r="F101">
-        <v>0.005940193428161026</v>
+        <v>0.0599476850010036</v>
       </c>
       <c r="G101">
-        <v>0.01572516331735289</v>
+        <v>0.01166798724958825</v>
       </c>
       <c r="H101">
-        <v>0.0163427293337334</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.01384145596456358</v>
+      </c>
+      <c r="I101">
+        <v>-0.007058315828565143</v>
+      </c>
+      <c r="J101">
+        <v>-0.008485724247235617</v>
+      </c>
+      <c r="K101">
+        <v>-0.08655765390015163</v>
+      </c>
+      <c r="L101">
+        <v>-0.01775819738028534</v>
+      </c>
+      <c r="M101">
+        <v>0.01124841174004569</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
